--- a/data/Excel Workbooks/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/SouthAfricaDataWorkbook.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="21075" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="21075" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="South Africa Workbook" sheetId="1" r:id="rId1"/>
-    <sheet name="ZA Indices Comparison" sheetId="9" r:id="rId2"/>
-    <sheet name="Exergy calcs" sheetId="10" r:id="rId3"/>
-    <sheet name="Employment Data" sheetId="2" r:id="rId4"/>
+    <sheet name="ZAData" sheetId="11" r:id="rId2"/>
+    <sheet name="ZA Indices Comparison" sheetId="9" r:id="rId3"/>
+    <sheet name="Exergy calcs" sheetId="10" r:id="rId4"/>
+    <sheet name="Employment Data" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>Exergy [TJ]</t>
   </si>
@@ -867,17 +868,42 @@
   <si>
     <t xml:space="preserve"> - Total population from 1991-2011 is from the World Bank's World Development Indicators database. </t>
   </si>
+  <si>
+    <t xml:space="preserve"> - The 'ZAData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
+  </si>
+  <si>
+    <t>iYear</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>iGDP</t>
+  </si>
+  <si>
+    <t>iLabor</t>
+  </si>
+  <si>
+    <t>iCapStk</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2261,7 +2287,7 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2288,7 +2314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2491,6 +2517,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2531,6 +2563,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="463" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3127,7 +3165,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$A$10:$A$30</c:f>
+              <c:f>'South Africa Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3199,7 +3237,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$G$10:$G$30</c:f>
+              <c:f>'South Africa Workbook'!$H$12:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3291,7 +3329,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$A$10:$A$30</c:f>
+              <c:f>'South Africa Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3363,7 +3401,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$I$10:$I$30</c:f>
+              <c:f>'South Africa Workbook'!$J$12:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3455,7 +3493,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$A$10:$A$30</c:f>
+              <c:f>'South Africa Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3527,7 +3565,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$H$10:$H$29</c:f>
+              <c:f>'South Africa Workbook'!$I$12:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3616,7 +3654,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$A$10:$A$30</c:f>
+              <c:f>'South Africa Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3688,7 +3726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$K$10:$K$30</c:f>
+              <c:f>'South Africa Workbook'!$L$12:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3782,7 +3820,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$A$10:$A$30</c:f>
+              <c:f>'South Africa Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3854,7 +3892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'South Africa Workbook'!$J$10:$J$30</c:f>
+              <c:f>'South Africa Workbook'!$K$12:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3934,11 +3972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44571264"/>
-        <c:axId val="45135360"/>
+        <c:axId val="47522176"/>
+        <c:axId val="47570944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44571264"/>
+        <c:axId val="47522176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,12 +4004,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45135360"/>
+        <c:crossAx val="47570944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45135360"/>
+        <c:axId val="47570944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4037,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44571264"/>
+        <c:crossAx val="47522176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4680,10 +4718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4693,23 +4731,24 @@
     <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="89" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="89" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="89" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="78"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
@@ -4719,12 +4758,12 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>38</v>
@@ -4732,12 +4771,12 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>39</v>
@@ -4745,12 +4784,12 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
         <v>40</v>
@@ -4758,12 +4797,12 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2"/>
       <c r="B6" s="18" t="s">
         <v>97</v>
@@ -4777,926 +4816,1090 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="82"/>
-      <c r="B8" s="90" t="s">
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" s="89" customFormat="1">
+      <c r="B7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" s="89" customFormat="1">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="82"/>
+      <c r="B10" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C10" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D10" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E10" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F10" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G10" s="90"/>
+      <c r="H10" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="I10" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="J10" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="K10" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="L10" s="92" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="83" t="s">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
+      <c r="B11" s="94"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
         <v>1991</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="1">
         <v>169183</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="7">
         <v>8243054.9752000002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>286960</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E12" s="18">
         <v>4210248.8093514787</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F12" s="84">
         <v>4476566.3953805398</v>
       </c>
-      <c r="G10" s="23">
-        <f>B10/$B$10</f>
+      <c r="G12" s="107">
+        <f>A12-$A$12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <f>B12/$B$12</f>
         <v>1</v>
       </c>
-      <c r="H10" s="5">
-        <f>C10/$C$10</f>
+      <c r="I12" s="5">
+        <f>C12/$C$12</f>
         <v>1</v>
       </c>
-      <c r="I10" s="5">
-        <f>D10/$D$10</f>
+      <c r="J12" s="5">
+        <f>D12/$D$12</f>
         <v>1</v>
       </c>
-      <c r="J10" s="5">
-        <f>E10/$E$10</f>
+      <c r="K12" s="5">
+        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <f>F10/$F$10</f>
+      <c r="L12" s="5">
+        <f>F12/$F$12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
         <v>1992</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="1">
         <v>165567</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <v>8416855.5265999995</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>287305</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E13" s="22">
         <v>4306511.9887280213</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F13" s="84">
         <v>4580272.2667902177</v>
       </c>
-      <c r="G11" s="23">
-        <f t="shared" ref="G11:G30" si="0">B11/$B$10</f>
+      <c r="G13" s="107">
+        <f t="shared" ref="G13:G43" si="1">A13-$A$12</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" ref="H13:H32" si="2">B13/$B$12</f>
         <v>0.97862669417140025</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" ref="H11:H29" si="1">C11/$C$10</f>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I31" si="3">C13/$C$12</f>
         <v>1.0210844828674435</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" ref="I11:I30" si="2">D11/$D$10</f>
+      <c r="J13" s="5">
+        <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
         <v>1.0012022581544466</v>
       </c>
-      <c r="J11" s="86">
-        <f>E11/$E$10</f>
+      <c r="K13" s="86">
+        <f t="shared" si="0"/>
         <v>1.0228640120181804</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" ref="K11:K30" si="3">F11/$F$10</f>
+      <c r="L13" s="5">
+        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
         <v>1.0231663874161889</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
         <v>1993</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="1">
         <v>167610</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C14" s="7">
         <v>8735141.8476</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>287512</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E14" s="18">
         <v>4306409.2224427555</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F14" s="84">
         <v>4577774.2419250254</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G14" s="107">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="2"/>
+        <v>0.99070237553418483</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0596971479482411</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0019236130471145</v>
+      </c>
+      <c r="K14" s="86">
         <f t="shared" si="0"/>
-        <v>0.99070237553418483</v>
-      </c>
-      <c r="H12" s="5">
+        <v>1.0228396034167133</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0226083648952295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B15" s="1">
+        <v>173030</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9647372.1959999986</v>
+      </c>
+      <c r="D15" s="1">
+        <v>289380</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4678703.3906155452</v>
+      </c>
+      <c r="F15" s="84">
+        <v>4970444.1357221976</v>
+      </c>
+      <c r="G15" s="107">
         <f t="shared" si="1"/>
-        <v>1.0596971479482411</v>
-      </c>
-      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23">
         <f t="shared" si="2"/>
-        <v>1.0019236130471145</v>
-      </c>
-      <c r="J12" s="86">
-        <f>E12/$E$10</f>
-        <v>1.0228396034167133</v>
-      </c>
-      <c r="K12" s="5">
+        <v>1.0227386912396637</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>1.0226083648952295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>1994</v>
-      </c>
-      <c r="B13" s="1">
-        <v>173030</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9647372.1959999986</v>
-      </c>
-      <c r="D13" s="1">
-        <v>289380</v>
-      </c>
-      <c r="E13" s="18">
-        <v>4678703.3906155452</v>
-      </c>
-      <c r="F13" s="84">
-        <v>4970444.1357221976</v>
-      </c>
-      <c r="G13" s="23">
+        <v>1.1703636849475125</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0084332311123501</v>
+      </c>
+      <c r="K15" s="86">
         <f t="shared" si="0"/>
-        <v>1.0227386912396637</v>
-      </c>
-      <c r="H13" s="5">
+        <v>1.1112652962987772</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1103251234810905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B16" s="1">
+        <v>178421</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10515456</v>
+      </c>
+      <c r="D16" s="1">
+        <v>293469</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4754964.9853330161</v>
+      </c>
+      <c r="F16" s="84">
+        <v>5045270.6697698003</v>
+      </c>
+      <c r="G16" s="107">
         <f t="shared" si="1"/>
-        <v>1.1703636849475125</v>
-      </c>
-      <c r="I13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16" s="23">
         <f t="shared" si="2"/>
-        <v>1.0084332311123501</v>
-      </c>
-      <c r="J13" s="86">
-        <f>E13/$E$10</f>
-        <v>1.1112652962987772</v>
-      </c>
-      <c r="K13" s="5">
+        <v>1.0546035949238399</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>1.1103251234810905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>1995</v>
-      </c>
-      <c r="B14" s="1">
-        <v>178421</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10515456</v>
-      </c>
-      <c r="D14" s="1">
-        <v>293469</v>
-      </c>
-      <c r="E14" s="18">
-        <v>4754964.9853330161</v>
-      </c>
-      <c r="F14" s="84">
-        <v>5045270.6697698003</v>
-      </c>
-      <c r="G14" s="23">
+        <v>1.2756746171943205</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0226826038472261</v>
+      </c>
+      <c r="K16" s="86">
         <f t="shared" si="0"/>
-        <v>1.0546035949238399</v>
-      </c>
-      <c r="H14" s="5">
+        <v>1.1293786188530368</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1270402858262345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B17" s="1">
+        <v>186106</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10240063.231999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>299465</v>
+      </c>
+      <c r="E17" s="18">
+        <v>4815406.5587088168</v>
+      </c>
+      <c r="F17" s="84">
+        <v>5112115.9262999482</v>
+      </c>
+      <c r="G17" s="107">
         <f t="shared" si="1"/>
-        <v>1.2756746171943205</v>
-      </c>
-      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="23">
         <f t="shared" si="2"/>
-        <v>1.0226826038472261</v>
-      </c>
-      <c r="J14" s="86">
-        <f>E14/$E$10</f>
-        <v>1.1293786188530368</v>
-      </c>
-      <c r="K14" s="5">
+        <v>1.1000277805689698</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>1.1270402858262345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>1996</v>
-      </c>
-      <c r="B15" s="1">
-        <v>186106</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10240063.231999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>299465</v>
-      </c>
-      <c r="E15" s="18">
-        <v>4815406.5587088168</v>
-      </c>
-      <c r="F15" s="84">
-        <v>5112115.9262999482</v>
-      </c>
-      <c r="G15" s="23">
+        <v>1.2422655511589069</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0435775020908837</v>
+      </c>
+      <c r="K17" s="86">
         <f t="shared" si="0"/>
-        <v>1.1000277805689698</v>
-      </c>
-      <c r="H15" s="5">
+        <v>1.143734438689991</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
+        <v>1.141972546542646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B18" s="1">
+        <v>191031</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10640776.380000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>306565</v>
+      </c>
+      <c r="E18" s="18">
+        <v>5190791.6138765467</v>
+      </c>
+      <c r="F18" s="84">
+        <v>5516348.0246329345</v>
+      </c>
+      <c r="G18" s="107">
         <f t="shared" si="1"/>
-        <v>1.2422655511589069</v>
-      </c>
-      <c r="I15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H18" s="23">
         <f t="shared" si="2"/>
-        <v>1.0435775020908837</v>
-      </c>
-      <c r="J15" s="86">
-        <f>E15/$E$10</f>
-        <v>1.143734438689991</v>
-      </c>
-      <c r="K15" s="5">
+        <v>1.1291382703935975</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>1.141972546542646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>1997</v>
-      </c>
-      <c r="B16" s="1">
-        <v>191031</v>
-      </c>
-      <c r="C16" s="7">
-        <v>10640776.380000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>306565</v>
-      </c>
-      <c r="E16" s="18">
-        <v>5190791.6138765467</v>
-      </c>
-      <c r="F16" s="84">
-        <v>5516348.0246329345</v>
-      </c>
-      <c r="G16" s="23">
+        <v>1.2908777646168526</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0683196264287707</v>
+      </c>
+      <c r="K18" s="86">
         <f t="shared" si="0"/>
-        <v>1.1291382703935975</v>
-      </c>
-      <c r="H16" s="5">
+        <v>1.232894265618498</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2322721339116889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B19" s="1">
+        <v>192020</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10621569.6405</v>
+      </c>
+      <c r="D19" s="1">
+        <v>314505</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4961158.2452324228</v>
+      </c>
+      <c r="F19" s="84">
+        <v>5265677.9199148547</v>
+      </c>
+      <c r="G19" s="107">
         <f t="shared" si="1"/>
-        <v>1.2908777646168526</v>
-      </c>
-      <c r="I16" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="23">
         <f t="shared" si="2"/>
-        <v>1.0683196264287707</v>
-      </c>
-      <c r="J16" s="86">
-        <f>E16/$E$10</f>
-        <v>1.232894265618498</v>
-      </c>
-      <c r="K16" s="5">
+        <v>1.134984011395944</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>1.2322721339116889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>1998</v>
-      </c>
-      <c r="B17" s="1">
-        <v>192020</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10621569.6405</v>
-      </c>
-      <c r="D17" s="1">
-        <v>314505</v>
-      </c>
-      <c r="E17" s="18">
-        <v>4961158.2452324228</v>
-      </c>
-      <c r="F17" s="84">
-        <v>5265677.9199148547</v>
-      </c>
-      <c r="G17" s="23">
+        <v>1.2885477134940848</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0959889880122664</v>
+      </c>
+      <c r="K19" s="86">
         <f t="shared" si="0"/>
-        <v>1.134984011395944</v>
-      </c>
-      <c r="H17" s="5">
+        <v>1.1783527458550864</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1762760684949551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="1">
+        <v>196548</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11048505.039000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>319656</v>
+      </c>
+      <c r="E20" s="18">
+        <v>5162442.8115172582</v>
+      </c>
+      <c r="F20" s="84">
+        <v>5483348.392881209</v>
+      </c>
+      <c r="G20" s="107">
         <f t="shared" si="1"/>
-        <v>1.2885477134940848</v>
-      </c>
-      <c r="I17" s="5">
+        <v>8</v>
+      </c>
+      <c r="H20" s="23">
         <f t="shared" si="2"/>
-        <v>1.0959889880122664</v>
-      </c>
-      <c r="J17" s="86">
-        <f>E17/$E$10</f>
-        <v>1.1783527458550864</v>
-      </c>
-      <c r="K17" s="5">
+        <v>1.1617479297565358</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>1.1762760684949551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>1999</v>
-      </c>
-      <c r="B18" s="1">
-        <v>196548</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11048505.039000001</v>
-      </c>
-      <c r="D18" s="1">
-        <v>319656</v>
-      </c>
-      <c r="E18" s="18">
-        <v>5162442.8115172582</v>
-      </c>
-      <c r="F18" s="84">
-        <v>5483348.392881209</v>
-      </c>
-      <c r="G18" s="23">
+        <v>1.3403410595028735</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1139392249790911</v>
+      </c>
+      <c r="K20" s="86">
         <f t="shared" si="0"/>
-        <v>1.1617479297565358</v>
-      </c>
-      <c r="H18" s="5">
+        <v>1.2261609812823508</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2249004948389883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>204713</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11035200</v>
+      </c>
+      <c r="D21" s="1">
+        <v>325497</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5298038.8757456113</v>
+      </c>
+      <c r="F21" s="84">
+        <v>5629526.1132363826</v>
+      </c>
+      <c r="G21" s="107">
         <f t="shared" si="1"/>
-        <v>1.3403410595028735</v>
-      </c>
-      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="H21" s="23">
         <f t="shared" si="2"/>
-        <v>1.1139392249790911</v>
-      </c>
-      <c r="J18" s="86">
-        <f>E18/$E$10</f>
-        <v>1.2261609812823508</v>
-      </c>
-      <c r="K18" s="5">
+        <v>1.2100092798921878</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>1.2249004948389883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B19" s="1">
-        <v>204713</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11035200</v>
-      </c>
-      <c r="D19" s="1">
-        <v>325497</v>
-      </c>
-      <c r="E19" s="18">
-        <v>5298038.8757456113</v>
-      </c>
-      <c r="F19" s="84">
-        <v>5629526.1132363826</v>
-      </c>
-      <c r="G19" s="23">
+        <v>1.3387269687270591</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1342939782548089</v>
+      </c>
+      <c r="K21" s="86">
         <f t="shared" si="0"/>
-        <v>1.2100092798921878</v>
-      </c>
-      <c r="H19" s="5">
+        <v>1.2583671691748994</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2575544772541754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>210313</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11133124.0502</v>
+      </c>
+      <c r="D22" s="1">
+        <v>331733</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5363630.4388240669</v>
+      </c>
+      <c r="F22" s="85">
+        <v>5701907.5191969927</v>
+      </c>
+      <c r="G22" s="107">
         <f t="shared" si="1"/>
-        <v>1.3387269687270591</v>
-      </c>
-      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="23">
         <f t="shared" si="2"/>
-        <v>1.1342939782548089</v>
-      </c>
-      <c r="J19" s="86">
-        <f>E19/$E$10</f>
-        <v>1.2583671691748994</v>
-      </c>
-      <c r="K19" s="5">
+        <v>1.2431095322816121</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>1.2575544772541754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B20" s="1">
-        <v>210313</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11133124.0502</v>
-      </c>
-      <c r="D20" s="1">
-        <v>331733</v>
-      </c>
-      <c r="E20" s="18">
-        <v>5363630.4388240669</v>
-      </c>
-      <c r="F20" s="85">
-        <v>5701907.5191969927</v>
-      </c>
-      <c r="G20" s="23">
+        <v>1.350606551053589</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1560252299972122</v>
+      </c>
+      <c r="K22" s="86">
         <f t="shared" si="0"/>
-        <v>1.2431095322816121</v>
-      </c>
-      <c r="H20" s="5">
+        <v>1.2739461921848387</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2737234334513405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>218027</v>
+      </c>
+      <c r="C23" s="7">
+        <v>11287703.086800002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>338546</v>
+      </c>
+      <c r="E23" s="18">
+        <v>5252981.5763479844</v>
+      </c>
+      <c r="F23" s="85">
+        <v>5577606.3698565699</v>
+      </c>
+      <c r="G23" s="107">
         <f t="shared" si="1"/>
-        <v>1.350606551053589</v>
-      </c>
-      <c r="I20" s="5">
+        <v>11</v>
+      </c>
+      <c r="H23" s="23">
         <f t="shared" si="2"/>
-        <v>1.1560252299972122</v>
-      </c>
-      <c r="J20" s="86">
-        <f>E20/$E$10</f>
-        <v>1.2739461921848387</v>
-      </c>
-      <c r="K20" s="5">
+        <v>1.2887051299480443</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>1.2737234334513405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>2002</v>
-      </c>
-      <c r="B21" s="1">
-        <v>218027</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11287703.086800002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>338546</v>
-      </c>
-      <c r="E21" s="18">
-        <v>5252981.5763479844</v>
-      </c>
-      <c r="F21" s="85">
-        <v>5577606.3698565699</v>
-      </c>
-      <c r="G21" s="23">
+        <v>1.3693591903438846</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1797672149428491</v>
+      </c>
+      <c r="K23" s="86">
         <f t="shared" si="0"/>
-        <v>1.2887051299480443</v>
-      </c>
-      <c r="H21" s="5">
+        <v>1.2476653552351749</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
+        <v>1.245956359680539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="1">
+        <v>224457</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11602909.8904</v>
+      </c>
+      <c r="D24" s="1">
+        <v>347957</v>
+      </c>
+      <c r="E24" s="18">
+        <v>5631410.1187984794</v>
+      </c>
+      <c r="F24" s="85">
+        <v>5988288.9464195846</v>
+      </c>
+      <c r="G24" s="107">
         <f t="shared" si="1"/>
-        <v>1.3693591903438846</v>
-      </c>
-      <c r="I21" s="5">
+        <v>12</v>
+      </c>
+      <c r="H24" s="23">
         <f t="shared" si="2"/>
-        <v>1.1797672149428491</v>
-      </c>
-      <c r="J21" s="86">
-        <f>E21/$E$10</f>
-        <v>1.2476653552351749</v>
-      </c>
-      <c r="K21" s="5">
+        <v>1.32671131260233</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>1.245956359680539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B22" s="1">
-        <v>224457</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11602909.8904</v>
-      </c>
-      <c r="D22" s="1">
-        <v>347957</v>
-      </c>
-      <c r="E22" s="18">
-        <v>5631410.1187984794</v>
-      </c>
-      <c r="F22" s="85">
-        <v>5988288.9464195846</v>
-      </c>
-      <c r="G22" s="23">
+        <v>1.4075982660929032</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2125627265124059</v>
+      </c>
+      <c r="K24" s="86">
         <f t="shared" si="0"/>
-        <v>1.32671131260233</v>
-      </c>
-      <c r="H22" s="5">
+        <v>1.3375480580364816</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3376968903217927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="1">
+        <v>234680</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12375497.269200001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>360972</v>
+      </c>
+      <c r="E25" s="18">
+        <v>5975338.8303893395</v>
+      </c>
+      <c r="F25" s="85">
+        <v>6353517.3998798952</v>
+      </c>
+      <c r="G25" s="107">
         <f t="shared" si="1"/>
-        <v>1.4075982660929032</v>
-      </c>
-      <c r="I22" s="5">
+        <v>13</v>
+      </c>
+      <c r="H25" s="23">
         <f t="shared" si="2"/>
-        <v>1.2125627265124059</v>
-      </c>
-      <c r="J22" s="86">
-        <f>E22/$E$10</f>
-        <v>1.3375480580364816</v>
-      </c>
-      <c r="K22" s="5">
+        <v>1.3871370054910954</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>1.3376968903217927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>2004</v>
-      </c>
-      <c r="B23" s="1">
-        <v>234680</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12375497.269200001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>360972</v>
-      </c>
-      <c r="E23" s="18">
-        <v>5975338.8303893395</v>
-      </c>
-      <c r="F23" s="85">
-        <v>6353517.3998798952</v>
-      </c>
-      <c r="G23" s="23">
+        <v>1.501324121509906</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2579174797881238</v>
+      </c>
+      <c r="K25" s="86">
         <f t="shared" si="0"/>
-        <v>1.3871370054910954</v>
-      </c>
-      <c r="H23" s="5">
+        <v>1.4192365109438139</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4192836291753026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="1">
+        <v>247064</v>
+      </c>
+      <c r="C26" s="7">
+        <v>12517033.978800001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>377181</v>
+      </c>
+      <c r="E26" s="18">
+        <v>5906380.786827554</v>
+      </c>
+      <c r="F26" s="85">
+        <v>6277598.9758732328</v>
+      </c>
+      <c r="G26" s="107">
         <f t="shared" si="1"/>
-        <v>1.501324121509906</v>
-      </c>
-      <c r="I23" s="5">
+        <v>14</v>
+      </c>
+      <c r="H26" s="23">
         <f t="shared" si="2"/>
-        <v>1.2579174797881238</v>
-      </c>
-      <c r="J23" s="86">
-        <f>E23/$E$10</f>
-        <v>1.4192365109438139</v>
-      </c>
-      <c r="K23" s="5">
+        <v>1.4603358493465655</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>1.4192836291753026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>2005</v>
-      </c>
-      <c r="B24" s="1">
-        <v>247064</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12517033.978800001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>377181</v>
-      </c>
-      <c r="E24" s="18">
-        <v>5906380.786827554</v>
-      </c>
-      <c r="F24" s="85">
-        <v>6277598.9758732328</v>
-      </c>
-      <c r="G24" s="23">
+        <v>1.5184945407326125</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="4"/>
+        <v>1.314402704209646</v>
+      </c>
+      <c r="K26" s="86">
         <f t="shared" si="0"/>
-        <v>1.4603358493465655</v>
-      </c>
-      <c r="H24" s="5">
+        <v>1.4028578961197633</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4023245544512006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="1">
+        <v>260909</v>
+      </c>
+      <c r="C27" s="7">
+        <v>13173741.095999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>397293</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6074440.8381840708</v>
+      </c>
+      <c r="F27" s="85">
+        <v>6452344.2490906287</v>
+      </c>
+      <c r="G27" s="107">
         <f t="shared" si="1"/>
-        <v>1.5184945407326125</v>
-      </c>
-      <c r="I24" s="5">
+        <v>15</v>
+      </c>
+      <c r="H27" s="23">
         <f t="shared" si="2"/>
-        <v>1.314402704209646</v>
-      </c>
-      <c r="J24" s="86">
-        <f>E24/$E$10</f>
-        <v>1.4028578961197633</v>
-      </c>
-      <c r="K24" s="5">
+        <v>1.5421703126200623</v>
+      </c>
+      <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>1.4023245544512006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3">
-        <v>2006</v>
-      </c>
-      <c r="B25" s="1">
-        <v>260909</v>
-      </c>
-      <c r="C25" s="7">
-        <v>13173741.095999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>397293</v>
-      </c>
-      <c r="E25" s="18">
-        <v>6074440.8381840708</v>
-      </c>
-      <c r="F25" s="85">
-        <v>6452344.2490906287</v>
-      </c>
-      <c r="G25" s="23">
+        <v>1.5981624695740144</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3844891274045164</v>
+      </c>
+      <c r="K27" s="86">
         <f t="shared" si="0"/>
-        <v>1.5421703126200623</v>
-      </c>
-      <c r="H25" s="5">
+        <v>1.4427747891507012</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4413601138026086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="1">
+        <v>275222</v>
+      </c>
+      <c r="C28" s="7">
+        <v>13984960.3236</v>
+      </c>
+      <c r="D28" s="1">
+        <v>422586</v>
+      </c>
+      <c r="E28" s="18">
+        <v>6310337.0696457792</v>
+      </c>
+      <c r="F28" s="85">
+        <v>6698224.4810592281</v>
+      </c>
+      <c r="G28" s="107">
         <f t="shared" si="1"/>
-        <v>1.5981624695740144</v>
-      </c>
-      <c r="I25" s="5">
+        <v>16</v>
+      </c>
+      <c r="H28" s="23">
         <f t="shared" si="2"/>
-        <v>1.3844891274045164</v>
-      </c>
-      <c r="J25" s="86">
-        <f>E25/$E$10</f>
-        <v>1.4427747891507012</v>
-      </c>
-      <c r="K25" s="5">
+        <v>1.6267710112718181</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>1.4413601138026086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3">
-        <v>2007</v>
-      </c>
-      <c r="B26" s="1">
-        <v>275222</v>
-      </c>
-      <c r="C26" s="7">
-        <v>13984960.3236</v>
-      </c>
-      <c r="D26" s="1">
-        <v>422586</v>
-      </c>
-      <c r="E26" s="18">
-        <v>6310337.0696457792</v>
-      </c>
-      <c r="F26" s="85">
-        <v>6698224.4810592281</v>
-      </c>
-      <c r="G26" s="23">
+        <v>1.6965749186042138</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4726303317535545</v>
+      </c>
+      <c r="K28" s="86">
         <f t="shared" si="0"/>
-        <v>1.6267710112718181</v>
-      </c>
-      <c r="H26" s="5">
+        <v>1.4988038368729533</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4962861911243543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="1">
+        <v>285347</v>
+      </c>
+      <c r="C29" s="7">
+        <v>14476889.6274</v>
+      </c>
+      <c r="D29" s="1">
+        <v>452336</v>
+      </c>
+      <c r="E29" s="18">
+        <v>6478181.5158158448</v>
+      </c>
+      <c r="F29" s="85">
+        <v>6879163.6985768247</v>
+      </c>
+      <c r="G29" s="107">
         <f t="shared" si="1"/>
-        <v>1.6965749186042138</v>
-      </c>
-      <c r="I26" s="5">
+        <v>17</v>
+      </c>
+      <c r="H29" s="23">
         <f t="shared" si="2"/>
-        <v>1.4726303317535545</v>
-      </c>
-      <c r="J26" s="86">
-        <f>E26/$E$10</f>
-        <v>1.4988038368729533</v>
-      </c>
-      <c r="K26" s="5">
+        <v>1.6866174497437685</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>1.4962861911243543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3">
-        <v>2008</v>
-      </c>
-      <c r="B27" s="1">
-        <v>285347</v>
-      </c>
-      <c r="C27" s="7">
-        <v>14476889.6274</v>
-      </c>
-      <c r="D27" s="1">
-        <v>452336</v>
-      </c>
-      <c r="E27" s="18">
-        <v>6478181.5158158448</v>
-      </c>
-      <c r="F27" s="85">
-        <v>6879163.6985768247</v>
-      </c>
-      <c r="G27" s="23">
+        <v>1.7562529512365346</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="4"/>
+        <v>1.576303317535545</v>
+      </c>
+      <c r="K29" s="86">
         <f t="shared" si="0"/>
-        <v>1.6866174497437685</v>
-      </c>
-      <c r="H27" s="5">
+        <v>1.5386695202969976</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="5"/>
+        <v>1.5367053877890819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="1">
+        <v>281067</v>
+      </c>
+      <c r="C30" s="7">
+        <v>14129053.050000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>482180</v>
+      </c>
+      <c r="E30" s="18">
+        <v>6222769.9044265468</v>
+      </c>
+      <c r="F30" s="85">
+        <v>6606515.2869419698</v>
+      </c>
+      <c r="G30" s="107">
         <f t="shared" si="1"/>
-        <v>1.7562529512365346</v>
-      </c>
-      <c r="I27" s="5">
+        <v>18</v>
+      </c>
+      <c r="H30" s="23">
         <f t="shared" si="2"/>
-        <v>1.576303317535545</v>
-      </c>
-      <c r="J27" s="86">
-        <f>E27/$E$10</f>
-        <v>1.5386695202969976</v>
-      </c>
-      <c r="K27" s="5">
+        <v>1.6613193997032798</v>
+      </c>
+      <c r="I30" s="5">
+        <f>C30/$C$12</f>
+        <v>1.7140554190780692</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6803038751045443</v>
+      </c>
+      <c r="K30" s="86">
+        <f t="shared" si="0"/>
+        <v>1.4780052643456634</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4757996874031327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="1">
+        <v>289218</v>
+      </c>
+      <c r="C31" s="7">
+        <v>13647624.9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>514326</v>
+      </c>
+      <c r="E31" s="18">
+        <v>6317251.3994060401</v>
+      </c>
+      <c r="F31" s="85">
+        <v>6711976.8394822208</v>
+      </c>
+      <c r="G31" s="107">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7094979992079582</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>1.5367053877890819</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3">
-        <v>2009</v>
-      </c>
-      <c r="B28" s="1">
-        <v>281067</v>
-      </c>
-      <c r="C28" s="7">
-        <v>14129053.050000001</v>
-      </c>
-      <c r="D28" s="1">
-        <v>482180</v>
-      </c>
-      <c r="E28" s="18">
-        <v>6222769.9044265468</v>
-      </c>
-      <c r="F28" s="85">
-        <v>6606515.2869419698</v>
-      </c>
-      <c r="G28" s="23">
+        <v>1.655651326002332</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7923264566490102</v>
+      </c>
+      <c r="K31" s="86">
         <f t="shared" si="0"/>
-        <v>1.6613193997032798</v>
-      </c>
-      <c r="H28" s="5">
-        <f>C28/$C$10</f>
-        <v>1.7140554190780692</v>
-      </c>
-      <c r="I28" s="5">
+        <v>1.5004460984288268</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4993582685176849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="1">
+        <v>298183</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1">
+        <v>547124</v>
+      </c>
+      <c r="E32" s="18">
+        <v>6476757.2680941168</v>
+      </c>
+      <c r="F32" s="85">
+        <v>6894958.102703983</v>
+      </c>
+      <c r="G32" s="107">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H32" s="23">
         <f t="shared" si="2"/>
-        <v>1.6803038751045443</v>
-      </c>
-      <c r="J28" s="86">
-        <f>E28/$E$10</f>
-        <v>1.4780052643456634</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4757996874031327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B29" s="1">
-        <v>289218</v>
-      </c>
-      <c r="C29" s="7">
-        <v>13647624.9</v>
-      </c>
-      <c r="D29" s="1">
-        <v>514326</v>
-      </c>
-      <c r="E29" s="18">
-        <v>6317251.3994060401</v>
-      </c>
-      <c r="F29" s="85">
-        <v>6711976.8394822208</v>
-      </c>
-      <c r="G29" s="23">
+        <v>1.7624879568278136</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9066211318650683</v>
+      </c>
+      <c r="K32" s="86">
         <f t="shared" si="0"/>
-        <v>1.7094979992079582</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="1"/>
-        <v>1.655651326002332</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7923264566490102</v>
-      </c>
-      <c r="J29" s="86">
-        <f>E29/$E$10</f>
-        <v>1.5004460984288268</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4993582685176849</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B30" s="1">
-        <v>298183</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1">
-        <v>547124</v>
-      </c>
-      <c r="E30" s="18">
-        <v>6476757.2680941168</v>
-      </c>
-      <c r="F30" s="85">
-        <v>6894958.102703983</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="0"/>
-        <v>1.7624879568278136</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9066211318650683</v>
-      </c>
-      <c r="J30" s="86">
-        <f>E30/$E$10</f>
         <v>1.5383312391677293</v>
       </c>
-      <c r="K30" s="86">
-        <f t="shared" si="3"/>
+      <c r="L32" s="86">
+        <f t="shared" si="5"/>
         <v>1.5402336285727898</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+    <row r="33" spans="2:12">
+      <c r="G33" s="107"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="G35" s="107"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="G36" s="107"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="G37" s="107"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="G38" s="107"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="G39" s="107"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="G40" s="107"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="G41" s="107"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="G42" s="107"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="G43" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5704,6 +5907,593 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="91" t="str">
+        <f>'South Africa Workbook'!G9</f>
+        <v>iYear</v>
+      </c>
+      <c r="B1" s="91" t="str">
+        <f>'South Africa Workbook'!H9</f>
+        <v>iGDP</v>
+      </c>
+      <c r="C1" s="91" t="str">
+        <f>'South Africa Workbook'!I9</f>
+        <v>iLabor</v>
+      </c>
+      <c r="D1" s="91" t="str">
+        <f>'South Africa Workbook'!J9</f>
+        <v>iCapStk</v>
+      </c>
+      <c r="E1" s="91" t="str">
+        <f>'South Africa Workbook'!K9</f>
+        <v>iQ</v>
+      </c>
+      <c r="F1" s="91" t="str">
+        <f>'South Africa Workbook'!L9</f>
+        <v>iX</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
+        <f>'South Africa Workbook'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="108">
+        <f>'South Africa Workbook'!H12</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="108">
+        <f>'South Africa Workbook'!I12</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="108">
+        <f>'South Africa Workbook'!J12</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="108">
+        <f>'South Africa Workbook'!K12</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="108">
+        <f>'South Africa Workbook'!L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <f>'South Africa Workbook'!G13</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="108">
+        <f>'South Africa Workbook'!H13</f>
+        <v>0.97862669417140025</v>
+      </c>
+      <c r="C3" s="108">
+        <f>'South Africa Workbook'!I13</f>
+        <v>1.0210844828674435</v>
+      </c>
+      <c r="D3" s="108">
+        <f>'South Africa Workbook'!J13</f>
+        <v>1.0012022581544466</v>
+      </c>
+      <c r="E3" s="108">
+        <f>'South Africa Workbook'!K13</f>
+        <v>1.0228640120181804</v>
+      </c>
+      <c r="F3" s="108">
+        <f>'South Africa Workbook'!L13</f>
+        <v>1.0231663874161889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <f>'South Africa Workbook'!G14</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="108">
+        <f>'South Africa Workbook'!H14</f>
+        <v>0.99070237553418483</v>
+      </c>
+      <c r="C4" s="108">
+        <f>'South Africa Workbook'!I14</f>
+        <v>1.0596971479482411</v>
+      </c>
+      <c r="D4" s="108">
+        <f>'South Africa Workbook'!J14</f>
+        <v>1.0019236130471145</v>
+      </c>
+      <c r="E4" s="108">
+        <f>'South Africa Workbook'!K14</f>
+        <v>1.0228396034167133</v>
+      </c>
+      <c r="F4" s="108">
+        <f>'South Africa Workbook'!L14</f>
+        <v>1.0226083648952295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <f>'South Africa Workbook'!G15</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="108">
+        <f>'South Africa Workbook'!H15</f>
+        <v>1.0227386912396637</v>
+      </c>
+      <c r="C5" s="108">
+        <f>'South Africa Workbook'!I15</f>
+        <v>1.1703636849475125</v>
+      </c>
+      <c r="D5" s="108">
+        <f>'South Africa Workbook'!J15</f>
+        <v>1.0084332311123501</v>
+      </c>
+      <c r="E5" s="108">
+        <f>'South Africa Workbook'!K15</f>
+        <v>1.1112652962987772</v>
+      </c>
+      <c r="F5" s="108">
+        <f>'South Africa Workbook'!L15</f>
+        <v>1.1103251234810905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <f>'South Africa Workbook'!G16</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="108">
+        <f>'South Africa Workbook'!H16</f>
+        <v>1.0546035949238399</v>
+      </c>
+      <c r="C6" s="108">
+        <f>'South Africa Workbook'!I16</f>
+        <v>1.2756746171943205</v>
+      </c>
+      <c r="D6" s="108">
+        <f>'South Africa Workbook'!J16</f>
+        <v>1.0226826038472261</v>
+      </c>
+      <c r="E6" s="108">
+        <f>'South Africa Workbook'!K16</f>
+        <v>1.1293786188530368</v>
+      </c>
+      <c r="F6" s="108">
+        <f>'South Africa Workbook'!L16</f>
+        <v>1.1270402858262345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <f>'South Africa Workbook'!G17</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="108">
+        <f>'South Africa Workbook'!H17</f>
+        <v>1.1000277805689698</v>
+      </c>
+      <c r="C7" s="108">
+        <f>'South Africa Workbook'!I17</f>
+        <v>1.2422655511589069</v>
+      </c>
+      <c r="D7" s="108">
+        <f>'South Africa Workbook'!J17</f>
+        <v>1.0435775020908837</v>
+      </c>
+      <c r="E7" s="108">
+        <f>'South Africa Workbook'!K17</f>
+        <v>1.143734438689991</v>
+      </c>
+      <c r="F7" s="108">
+        <f>'South Africa Workbook'!L17</f>
+        <v>1.141972546542646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <f>'South Africa Workbook'!G18</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="108">
+        <f>'South Africa Workbook'!H18</f>
+        <v>1.1291382703935975</v>
+      </c>
+      <c r="C8" s="108">
+        <f>'South Africa Workbook'!I18</f>
+        <v>1.2908777646168526</v>
+      </c>
+      <c r="D8" s="108">
+        <f>'South Africa Workbook'!J18</f>
+        <v>1.0683196264287707</v>
+      </c>
+      <c r="E8" s="108">
+        <f>'South Africa Workbook'!K18</f>
+        <v>1.232894265618498</v>
+      </c>
+      <c r="F8" s="108">
+        <f>'South Africa Workbook'!L18</f>
+        <v>1.2322721339116889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <f>'South Africa Workbook'!G19</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="108">
+        <f>'South Africa Workbook'!H19</f>
+        <v>1.134984011395944</v>
+      </c>
+      <c r="C9" s="108">
+        <f>'South Africa Workbook'!I19</f>
+        <v>1.2885477134940848</v>
+      </c>
+      <c r="D9" s="108">
+        <f>'South Africa Workbook'!J19</f>
+        <v>1.0959889880122664</v>
+      </c>
+      <c r="E9" s="108">
+        <f>'South Africa Workbook'!K19</f>
+        <v>1.1783527458550864</v>
+      </c>
+      <c r="F9" s="108">
+        <f>'South Africa Workbook'!L19</f>
+        <v>1.1762760684949551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <f>'South Africa Workbook'!G20</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="108">
+        <f>'South Africa Workbook'!H20</f>
+        <v>1.1617479297565358</v>
+      </c>
+      <c r="C10" s="108">
+        <f>'South Africa Workbook'!I20</f>
+        <v>1.3403410595028735</v>
+      </c>
+      <c r="D10" s="108">
+        <f>'South Africa Workbook'!J20</f>
+        <v>1.1139392249790911</v>
+      </c>
+      <c r="E10" s="108">
+        <f>'South Africa Workbook'!K20</f>
+        <v>1.2261609812823508</v>
+      </c>
+      <c r="F10" s="108">
+        <f>'South Africa Workbook'!L20</f>
+        <v>1.2249004948389883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <f>'South Africa Workbook'!G21</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="108">
+        <f>'South Africa Workbook'!H21</f>
+        <v>1.2100092798921878</v>
+      </c>
+      <c r="C11" s="108">
+        <f>'South Africa Workbook'!I21</f>
+        <v>1.3387269687270591</v>
+      </c>
+      <c r="D11" s="108">
+        <f>'South Africa Workbook'!J21</f>
+        <v>1.1342939782548089</v>
+      </c>
+      <c r="E11" s="108">
+        <f>'South Africa Workbook'!K21</f>
+        <v>1.2583671691748994</v>
+      </c>
+      <c r="F11" s="108">
+        <f>'South Africa Workbook'!L21</f>
+        <v>1.2575544772541754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <f>'South Africa Workbook'!G22</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="108">
+        <f>'South Africa Workbook'!H22</f>
+        <v>1.2431095322816121</v>
+      </c>
+      <c r="C12" s="108">
+        <f>'South Africa Workbook'!I22</f>
+        <v>1.350606551053589</v>
+      </c>
+      <c r="D12" s="108">
+        <f>'South Africa Workbook'!J22</f>
+        <v>1.1560252299972122</v>
+      </c>
+      <c r="E12" s="108">
+        <f>'South Africa Workbook'!K22</f>
+        <v>1.2739461921848387</v>
+      </c>
+      <c r="F12" s="108">
+        <f>'South Africa Workbook'!L22</f>
+        <v>1.2737234334513405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <f>'South Africa Workbook'!G23</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="108">
+        <f>'South Africa Workbook'!H23</f>
+        <v>1.2887051299480443</v>
+      </c>
+      <c r="C13" s="108">
+        <f>'South Africa Workbook'!I23</f>
+        <v>1.3693591903438846</v>
+      </c>
+      <c r="D13" s="108">
+        <f>'South Africa Workbook'!J23</f>
+        <v>1.1797672149428491</v>
+      </c>
+      <c r="E13" s="108">
+        <f>'South Africa Workbook'!K23</f>
+        <v>1.2476653552351749</v>
+      </c>
+      <c r="F13" s="108">
+        <f>'South Africa Workbook'!L23</f>
+        <v>1.245956359680539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <f>'South Africa Workbook'!G24</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="108">
+        <f>'South Africa Workbook'!H24</f>
+        <v>1.32671131260233</v>
+      </c>
+      <c r="C14" s="108">
+        <f>'South Africa Workbook'!I24</f>
+        <v>1.4075982660929032</v>
+      </c>
+      <c r="D14" s="108">
+        <f>'South Africa Workbook'!J24</f>
+        <v>1.2125627265124059</v>
+      </c>
+      <c r="E14" s="108">
+        <f>'South Africa Workbook'!K24</f>
+        <v>1.3375480580364816</v>
+      </c>
+      <c r="F14" s="108">
+        <f>'South Africa Workbook'!L24</f>
+        <v>1.3376968903217927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <f>'South Africa Workbook'!G25</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="108">
+        <f>'South Africa Workbook'!H25</f>
+        <v>1.3871370054910954</v>
+      </c>
+      <c r="C15" s="108">
+        <f>'South Africa Workbook'!I25</f>
+        <v>1.501324121509906</v>
+      </c>
+      <c r="D15" s="108">
+        <f>'South Africa Workbook'!J25</f>
+        <v>1.2579174797881238</v>
+      </c>
+      <c r="E15" s="108">
+        <f>'South Africa Workbook'!K25</f>
+        <v>1.4192365109438139</v>
+      </c>
+      <c r="F15" s="108">
+        <f>'South Africa Workbook'!L25</f>
+        <v>1.4192836291753026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <f>'South Africa Workbook'!G26</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="108">
+        <f>'South Africa Workbook'!H26</f>
+        <v>1.4603358493465655</v>
+      </c>
+      <c r="C16" s="108">
+        <f>'South Africa Workbook'!I26</f>
+        <v>1.5184945407326125</v>
+      </c>
+      <c r="D16" s="108">
+        <f>'South Africa Workbook'!J26</f>
+        <v>1.314402704209646</v>
+      </c>
+      <c r="E16" s="108">
+        <f>'South Africa Workbook'!K26</f>
+        <v>1.4028578961197633</v>
+      </c>
+      <c r="F16" s="108">
+        <f>'South Africa Workbook'!L26</f>
+        <v>1.4023245544512006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <f>'South Africa Workbook'!G27</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="108">
+        <f>'South Africa Workbook'!H27</f>
+        <v>1.5421703126200623</v>
+      </c>
+      <c r="C17" s="108">
+        <f>'South Africa Workbook'!I27</f>
+        <v>1.5981624695740144</v>
+      </c>
+      <c r="D17" s="108">
+        <f>'South Africa Workbook'!J27</f>
+        <v>1.3844891274045164</v>
+      </c>
+      <c r="E17" s="108">
+        <f>'South Africa Workbook'!K27</f>
+        <v>1.4427747891507012</v>
+      </c>
+      <c r="F17" s="108">
+        <f>'South Africa Workbook'!L27</f>
+        <v>1.4413601138026086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <f>'South Africa Workbook'!G28</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="108">
+        <f>'South Africa Workbook'!H28</f>
+        <v>1.6267710112718181</v>
+      </c>
+      <c r="C18" s="108">
+        <f>'South Africa Workbook'!I28</f>
+        <v>1.6965749186042138</v>
+      </c>
+      <c r="D18" s="108">
+        <f>'South Africa Workbook'!J28</f>
+        <v>1.4726303317535545</v>
+      </c>
+      <c r="E18" s="108">
+        <f>'South Africa Workbook'!K28</f>
+        <v>1.4988038368729533</v>
+      </c>
+      <c r="F18" s="108">
+        <f>'South Africa Workbook'!L28</f>
+        <v>1.4962861911243543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <f>'South Africa Workbook'!G29</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="108">
+        <f>'South Africa Workbook'!H29</f>
+        <v>1.6866174497437685</v>
+      </c>
+      <c r="C19" s="108">
+        <f>'South Africa Workbook'!I29</f>
+        <v>1.7562529512365346</v>
+      </c>
+      <c r="D19" s="108">
+        <f>'South Africa Workbook'!J29</f>
+        <v>1.576303317535545</v>
+      </c>
+      <c r="E19" s="108">
+        <f>'South Africa Workbook'!K29</f>
+        <v>1.5386695202969976</v>
+      </c>
+      <c r="F19" s="108">
+        <f>'South Africa Workbook'!L29</f>
+        <v>1.5367053877890819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <f>'South Africa Workbook'!G30</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="108">
+        <f>'South Africa Workbook'!H30</f>
+        <v>1.6613193997032798</v>
+      </c>
+      <c r="C20" s="108">
+        <f>'South Africa Workbook'!I30</f>
+        <v>1.7140554190780692</v>
+      </c>
+      <c r="D20" s="108">
+        <f>'South Africa Workbook'!J30</f>
+        <v>1.6803038751045443</v>
+      </c>
+      <c r="E20" s="108">
+        <f>'South Africa Workbook'!K30</f>
+        <v>1.4780052643456634</v>
+      </c>
+      <c r="F20" s="108">
+        <f>'South Africa Workbook'!L30</f>
+        <v>1.4757996874031327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <f>'South Africa Workbook'!G31</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="108">
+        <f>'South Africa Workbook'!H31</f>
+        <v>1.7094979992079582</v>
+      </c>
+      <c r="C21" s="108">
+        <f>'South Africa Workbook'!I31</f>
+        <v>1.655651326002332</v>
+      </c>
+      <c r="D21" s="108">
+        <f>'South Africa Workbook'!J31</f>
+        <v>1.7923264566490102</v>
+      </c>
+      <c r="E21" s="108">
+        <f>'South Africa Workbook'!K31</f>
+        <v>1.5004460984288268</v>
+      </c>
+      <c r="F21" s="108">
+        <f>'South Africa Workbook'!L31</f>
+        <v>1.4993582685176849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <f>'South Africa Workbook'!G32</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="108">
+        <f>'South Africa Workbook'!H32</f>
+        <v>1.7624879568278136</v>
+      </c>
+      <c r="C22" s="108" t="str">
+        <f>'South Africa Workbook'!I32</f>
+        <v>NA</v>
+      </c>
+      <c r="D22" s="108">
+        <f>'South Africa Workbook'!J32</f>
+        <v>1.9066211318650683</v>
+      </c>
+      <c r="E22" s="108">
+        <f>'South Africa Workbook'!K32</f>
+        <v>1.5383312391677293</v>
+      </c>
+      <c r="F22" s="108">
+        <f>'South Africa Workbook'!L32</f>
+        <v>1.5402336285727898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG102"/>
   <sheetViews>
@@ -6024,140 +6814,140 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="93" t="s">
+      <c r="J28" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="93" t="s">
+      <c r="K28" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="97" t="s">
+      <c r="L28" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="99" t="s">
+      <c r="M28" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="93" t="s">
+      <c r="N28" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="O28" s="93" t="s">
+      <c r="O28" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="P28" s="97" t="s">
+      <c r="P28" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Q28" s="99" t="s">
+      <c r="Q28" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="93" t="s">
+      <c r="R28" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="S28" s="93" t="s">
+      <c r="S28" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="T28" s="93" t="s">
+      <c r="T28" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="U28" s="93" t="s">
+      <c r="U28" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="93" t="s">
+      <c r="V28" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="93" t="s">
+      <c r="W28" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="X28" s="95" t="s">
+      <c r="X28" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="Y28" s="97" t="s">
+      <c r="Y28" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="Z28" s="99" t="s">
+      <c r="Z28" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="AA28" s="93" t="s">
+      <c r="AA28" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="AB28" s="93" t="s">
+      <c r="AB28" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="AC28" s="93" t="s">
+      <c r="AC28" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="AD28" s="93" t="s">
+      <c r="AD28" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="AE28" s="93" t="s">
+      <c r="AE28" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="AF28" s="93" t="s">
+      <c r="AF28" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="AG28" s="95" t="s">
+      <c r="AG28" s="97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="98"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="96"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="98"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="46">
@@ -9062,15 +9852,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
@@ -9081,26 +9876,21 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -9141,49 +9931,49 @@
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="K4" s="101"/>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="87" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="101"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="I6" s="104" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="41"/>
@@ -9192,14 +9982,14 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11">

--- a/data/Excel Workbooks/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/SouthAfricaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="21075" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="340" windowWidth="23720" windowHeight="17000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="South Africa Workbook" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="Exergy calcs" sheetId="10" r:id="rId4"/>
     <sheet name="Employment Data" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>Exergy [TJ]</t>
   </si>
@@ -892,6 +897,15 @@
   <si>
     <t>iX</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>iU</t>
+  </si>
 </sst>
 </file>
 
@@ -903,9 +917,9 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,6 +1202,22 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1676,11 +1706,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1696,7 +1726,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1705,12 +1735,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,7 +1749,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,7 +1758,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1739,11 +1769,11 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,7 +1782,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -1779,7 +1809,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="500">
+  <cellStyleXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2286,6 +2316,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2520,6 +2554,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="463" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2565,14 +2605,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="463" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="500">
+  <cellStyles count="504">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="47"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="58"/>
@@ -2892,6 +2926,8 @@
     <cellStyle name="Explanatory Text 7" xfId="332"/>
     <cellStyle name="Explanatory Text 8" xfId="333"/>
     <cellStyle name="Explanatory Text 9" xfId="334"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="49"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="335"/>
@@ -2966,6 +3002,8 @@
     <cellStyle name="Heading 4 7" xfId="382"/>
     <cellStyle name="Heading 4 8" xfId="383"/>
     <cellStyle name="Heading 4 9" xfId="384"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="385"/>
     <cellStyle name="Input 11" xfId="386"/>
@@ -3123,8 +3161,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31694422025453323"/>
-          <c:y val="2.0857099770809309E-2"/>
+          <c:x val="0.316944220254533"/>
+          <c:y val="0.0208570997708093"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3136,10 +3174,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1260028369724449E-2"/>
-          <c:y val="7.8876207629000605E-2"/>
-          <c:w val="0.89287292031298904"/>
-          <c:h val="0.87205635837713991"/>
+          <c:x val="0.0712600283697244"/>
+          <c:y val="0.0788762076290006"/>
+          <c:w val="0.892872920312989"/>
+          <c:h val="0.87205635837714"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3170,67 +3208,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,67 +3280,67 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97862669417140025</c:v>
+                  <c:v>0.9786266941714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99070237553418483</c:v>
+                  <c:v>0.990702375534185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0227386912396637</c:v>
+                  <c:v>1.022738691239664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546035949238399</c:v>
+                  <c:v>1.05460359492384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1000277805689698</c:v>
+                  <c:v>1.10002778056897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1291382703935975</c:v>
+                  <c:v>1.129138270393597</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.134984011395944</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1617479297565358</c:v>
+                  <c:v>1.161747929756536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2100092798921878</c:v>
+                  <c:v>1.210009279892188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2431095322816121</c:v>
+                  <c:v>1.243109532281612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2887051299480443</c:v>
+                  <c:v>1.288705129948044</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.32671131260233</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3871370054910954</c:v>
+                  <c:v>1.387137005491095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4603358493465655</c:v>
+                  <c:v>1.460335849346565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5421703126200623</c:v>
+                  <c:v>1.542170312620062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6267710112718181</c:v>
+                  <c:v>1.626771011271818</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6866174497437685</c:v>
+                  <c:v>1.686617449743768</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6613193997032798</c:v>
+                  <c:v>1.66131939970328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7094979992079582</c:v>
+                  <c:v>1.709497999207958</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7624879568278136</c:v>
+                  <c:v>1.762487956827813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,67 +3372,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,67 +3444,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0012022581544466</c:v>
+                  <c:v>1.001202258154447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0019236130471145</c:v>
+                  <c:v>1.001923613047115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0084332311123501</c:v>
+                  <c:v>1.00843323111235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0226826038472261</c:v>
+                  <c:v>1.022682603847226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0435775020908837</c:v>
+                  <c:v>1.043577502090884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0683196264287707</c:v>
+                  <c:v>1.068319626428771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0959889880122664</c:v>
+                  <c:v>1.095988988012266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1139392249790911</c:v>
+                  <c:v>1.113939224979091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1342939782548089</c:v>
+                  <c:v>1.134293978254809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1560252299972122</c:v>
+                  <c:v>1.156025229997212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1797672149428491</c:v>
+                  <c:v>1.17976721494285</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2125627265124059</c:v>
+                  <c:v>1.212562726512406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2579174797881238</c:v>
+                  <c:v>1.257917479788124</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.314402704209646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3844891274045164</c:v>
+                  <c:v>1.384489127404516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4726303317535545</c:v>
+                  <c:v>1.472630331753554</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.576303317535545</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6803038751045443</c:v>
+                  <c:v>1.680303875104544</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7923264566490102</c:v>
+                  <c:v>1.79232645664901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9066211318650683</c:v>
+                  <c:v>1.906621131865068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3498,67 +3536,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3570,61 +3608,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0210844828674435</c:v>
+                  <c:v>1.021084482867443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0596971479482411</c:v>
+                  <c:v>1.059697147948241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1703636849475125</c:v>
+                  <c:v>1.170363684947513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2756746171943205</c:v>
+                  <c:v>1.27567461719432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2422655511589069</c:v>
+                  <c:v>1.242265551158907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2908777646168526</c:v>
+                  <c:v>1.290877764616853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2885477134940848</c:v>
+                  <c:v>1.288547713494085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3403410595028735</c:v>
+                  <c:v>1.340341059502873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3387269687270591</c:v>
+                  <c:v>1.33872696872706</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.350606551053589</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3693591903438846</c:v>
+                  <c:v>1.369359190343885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4075982660929032</c:v>
+                  <c:v>1.407598266092903</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.501324121509906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5184945407326125</c:v>
+                  <c:v>1.518494540732612</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5981624695740144</c:v>
+                  <c:v>1.598162469574014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6965749186042138</c:v>
+                  <c:v>1.696574918604214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7562529512365346</c:v>
+                  <c:v>1.756252951236534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7140554190780692</c:v>
+                  <c:v>1.71405541907807</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.655651326002332</c:v>
@@ -3659,67 +3697,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,67 +3769,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0231663874161889</c:v>
+                  <c:v>1.023166387416189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0226083648952295</c:v>
+                  <c:v>1.02260836489523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1103251234810905</c:v>
+                  <c:v>1.11032512348109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1270402858262345</c:v>
+                  <c:v>1.127040285826234</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.141972546542646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2322721339116889</c:v>
+                  <c:v>1.232272133911689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1762760684949551</c:v>
+                  <c:v>1.176276068494955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2249004948389883</c:v>
+                  <c:v>1.224900494838988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2575544772541754</c:v>
+                  <c:v>1.257554477254175</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2737234334513405</c:v>
+                  <c:v>1.273723433451341</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.245956359680539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3376968903217927</c:v>
+                  <c:v>1.337696890321793</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4192836291753026</c:v>
+                  <c:v>1.419283629175303</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4023245544512006</c:v>
+                  <c:v>1.402324554451201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4413601138026086</c:v>
+                  <c:v>1.441360113802609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4962861911243543</c:v>
+                  <c:v>1.496286191124354</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5367053877890819</c:v>
+                  <c:v>1.536705387789082</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4757996874031327</c:v>
+                  <c:v>1.475799687403133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4993582685176849</c:v>
+                  <c:v>1.499358268517685</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5402336285727898</c:v>
+                  <c:v>1.54023362857279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3825,67 +3863,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,19 +3935,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0228640120181804</c:v>
+                  <c:v>1.02286401201818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0228396034167133</c:v>
+                  <c:v>1.022839603416713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1112652962987772</c:v>
+                  <c:v>1.111265296298777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1293786188530368</c:v>
+                  <c:v>1.129378618853037</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.143734438689991</c:v>
@@ -3918,46 +3956,46 @@
                   <c:v>1.232894265618498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1783527458550864</c:v>
+                  <c:v>1.178352745855086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2261609812823508</c:v>
+                  <c:v>1.226160981282351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2583671691748994</c:v>
+                  <c:v>1.258367169174899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2739461921848387</c:v>
+                  <c:v>1.273946192184839</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2476653552351749</c:v>
+                  <c:v>1.247665355235175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3375480580364816</c:v>
+                  <c:v>1.337548058036482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4192365109438139</c:v>
+                  <c:v>1.419236510943814</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4028578961197633</c:v>
+                  <c:v>1.402857896119763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4427747891507012</c:v>
+                  <c:v>1.442774789150701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4988038368729533</c:v>
+                  <c:v>1.498803836872953</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5386695202969976</c:v>
+                  <c:v>1.538669520296998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4780052643456634</c:v>
+                  <c:v>1.478005264345663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5004460984288268</c:v>
+                  <c:v>1.500446098428827</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5383312391677293</c:v>
+                  <c:v>1.538331239167729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,11 +4010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47522176"/>
-        <c:axId val="47570944"/>
+        <c:axId val="-2145495656"/>
+        <c:axId val="-2145487784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47522176"/>
+        <c:axId val="-2145495656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,12 +4042,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47570944"/>
+        <c:crossAx val="-2145487784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47570944"/>
+        <c:axId val="-2145487784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4075,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47522176"/>
+        <c:crossAx val="-2145495656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4720,32 +4758,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="89" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="89" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" style="89" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:12">
@@ -4873,35 +4911,35 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="82"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="94" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="90"/>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="J10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="94" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4909,17 +4947,17 @@
       <c r="A11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="90"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
@@ -4940,7 +4978,7 @@
       <c r="F12" s="84">
         <v>4476566.3953805398</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="92">
         <f>A12-$A$12</f>
         <v>0</v>
       </c>
@@ -4984,8 +5022,8 @@
       <c r="F13" s="84">
         <v>4580272.2667902177</v>
       </c>
-      <c r="G13" s="107">
-        <f t="shared" ref="G13:G43" si="1">A13-$A$12</f>
+      <c r="G13" s="92">
+        <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
         <v>1</v>
       </c>
       <c r="H13" s="23">
@@ -5028,7 +5066,7 @@
       <c r="F14" s="84">
         <v>4577774.2419250254</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5072,7 +5110,7 @@
       <c r="F15" s="84">
         <v>4970444.1357221976</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="92">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5116,7 +5154,7 @@
       <c r="F16" s="84">
         <v>5045270.6697698003</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5160,7 +5198,7 @@
       <c r="F17" s="84">
         <v>5112115.9262999482</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="92">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5204,7 +5242,7 @@
       <c r="F18" s="84">
         <v>5516348.0246329345</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="92">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5248,7 +5286,7 @@
       <c r="F19" s="84">
         <v>5265677.9199148547</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="92">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5292,7 +5330,7 @@
       <c r="F20" s="84">
         <v>5483348.392881209</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="92">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5336,7 +5374,7 @@
       <c r="F21" s="84">
         <v>5629526.1132363826</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="92">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5380,7 +5418,7 @@
       <c r="F22" s="85">
         <v>5701907.5191969927</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="92">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5424,7 +5462,7 @@
       <c r="F23" s="85">
         <v>5577606.3698565699</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="92">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -5468,7 +5506,7 @@
       <c r="F24" s="85">
         <v>5988288.9464195846</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="92">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -5512,7 +5550,7 @@
       <c r="F25" s="85">
         <v>6353517.3998798952</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="92">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -5556,7 +5594,7 @@
       <c r="F26" s="85">
         <v>6277598.9758732328</v>
       </c>
-      <c r="G26" s="107">
+      <c r="G26" s="92">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5600,7 +5638,7 @@
       <c r="F27" s="85">
         <v>6452344.2490906287</v>
       </c>
-      <c r="G27" s="107">
+      <c r="G27" s="92">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5644,7 +5682,7 @@
       <c r="F28" s="85">
         <v>6698224.4810592281</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="92">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -5688,7 +5726,7 @@
       <c r="F29" s="85">
         <v>6879163.6985768247</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="92">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5732,7 +5770,7 @@
       <c r="F30" s="85">
         <v>6606515.2869419698</v>
       </c>
-      <c r="G30" s="107">
+      <c r="G30" s="92">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -5776,7 +5814,7 @@
       <c r="F31" s="85">
         <v>6711976.8394822208</v>
       </c>
-      <c r="G31" s="107">
+      <c r="G31" s="92">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -5820,7 +5858,7 @@
       <c r="F32" s="85">
         <v>6894958.102703983</v>
       </c>
-      <c r="G32" s="107">
+      <c r="G32" s="92">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5845,7 +5883,7 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="G33" s="107"/>
+      <c r="G33" s="92"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="2"/>
@@ -5853,7 +5891,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="107"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5861,31 +5899,31 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="G35" s="107"/>
+      <c r="G35" s="92"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="G36" s="107"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="G37" s="107"/>
+      <c r="G37" s="92"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="G38" s="107"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="G39" s="107"/>
+      <c r="G39" s="92"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="G40" s="107"/>
+      <c r="G40" s="92"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="G41" s="107"/>
+      <c r="G41" s="92"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="G42" s="107"/>
+      <c r="G42" s="92"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="G43" s="107"/>
+      <c r="G43" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5902,594 +5940,827 @@
     <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="8.83203125" style="91"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="91" t="str">
+        <f>'South Africa Workbook'!A11</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="91" t="str">
         <f>'South Africa Workbook'!G9</f>
         <v>iYear</v>
       </c>
-      <c r="B1" s="91" t="str">
+      <c r="C1" s="91" t="str">
         <f>'South Africa Workbook'!H9</f>
         <v>iGDP</v>
       </c>
-      <c r="C1" s="91" t="str">
+      <c r="D1" s="91" t="str">
         <f>'South Africa Workbook'!I9</f>
         <v>iLabor</v>
       </c>
-      <c r="D1" s="91" t="str">
+      <c r="E1" s="91" t="str">
         <f>'South Africa Workbook'!J9</f>
         <v>iCapStk</v>
       </c>
-      <c r="E1" s="91" t="str">
+      <c r="F1" s="91" t="str">
         <f>'South Africa Workbook'!K9</f>
         <v>iQ</v>
       </c>
-      <c r="F1" s="91" t="str">
+      <c r="G1" s="91" t="str">
         <f>'South Africa Workbook'!L9</f>
         <v>iX</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="H1" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="91">
+        <f>'South Africa Workbook'!A12</f>
+        <v>1991</v>
+      </c>
+      <c r="B2" s="4">
         <f>'South Africa Workbook'!G12</f>
         <v>0</v>
       </c>
-      <c r="B2" s="108">
+      <c r="C2" s="93">
         <f>'South Africa Workbook'!H12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="108">
+      <c r="D2" s="93">
         <f>'South Africa Workbook'!I12</f>
         <v>1</v>
       </c>
-      <c r="D2" s="108">
+      <c r="E2" s="93">
         <f>'South Africa Workbook'!J12</f>
         <v>1</v>
       </c>
-      <c r="E2" s="108">
+      <c r="F2" s="93">
         <f>'South Africa Workbook'!K12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="108">
+      <c r="G2" s="93">
         <f>'South Africa Workbook'!L12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="H2" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="91">
+        <f>'South Africa Workbook'!A13</f>
+        <v>1992</v>
+      </c>
+      <c r="B3" s="4">
         <f>'South Africa Workbook'!G13</f>
         <v>1</v>
       </c>
-      <c r="B3" s="108">
+      <c r="C3" s="93">
         <f>'South Africa Workbook'!H13</f>
         <v>0.97862669417140025</v>
       </c>
-      <c r="C3" s="108">
+      <c r="D3" s="93">
         <f>'South Africa Workbook'!I13</f>
         <v>1.0210844828674435</v>
       </c>
-      <c r="D3" s="108">
+      <c r="E3" s="93">
         <f>'South Africa Workbook'!J13</f>
         <v>1.0012022581544466</v>
       </c>
-      <c r="E3" s="108">
+      <c r="F3" s="93">
         <f>'South Africa Workbook'!K13</f>
         <v>1.0228640120181804</v>
       </c>
-      <c r="F3" s="108">
+      <c r="G3" s="93">
         <f>'South Africa Workbook'!L13</f>
         <v>1.0231663874161889</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="H3" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="91">
+        <f>'South Africa Workbook'!A14</f>
+        <v>1993</v>
+      </c>
+      <c r="B4" s="4">
         <f>'South Africa Workbook'!G14</f>
         <v>2</v>
       </c>
-      <c r="B4" s="108">
+      <c r="C4" s="93">
         <f>'South Africa Workbook'!H14</f>
         <v>0.99070237553418483</v>
       </c>
-      <c r="C4" s="108">
+      <c r="D4" s="93">
         <f>'South Africa Workbook'!I14</f>
         <v>1.0596971479482411</v>
       </c>
-      <c r="D4" s="108">
+      <c r="E4" s="93">
         <f>'South Africa Workbook'!J14</f>
         <v>1.0019236130471145</v>
       </c>
-      <c r="E4" s="108">
+      <c r="F4" s="93">
         <f>'South Africa Workbook'!K14</f>
         <v>1.0228396034167133</v>
       </c>
-      <c r="F4" s="108">
+      <c r="G4" s="93">
         <f>'South Africa Workbook'!L14</f>
         <v>1.0226083648952295</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="H4" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="91">
+        <f>'South Africa Workbook'!A15</f>
+        <v>1994</v>
+      </c>
+      <c r="B5" s="4">
         <f>'South Africa Workbook'!G15</f>
         <v>3</v>
       </c>
-      <c r="B5" s="108">
+      <c r="C5" s="93">
         <f>'South Africa Workbook'!H15</f>
         <v>1.0227386912396637</v>
       </c>
-      <c r="C5" s="108">
+      <c r="D5" s="93">
         <f>'South Africa Workbook'!I15</f>
         <v>1.1703636849475125</v>
       </c>
-      <c r="D5" s="108">
+      <c r="E5" s="93">
         <f>'South Africa Workbook'!J15</f>
         <v>1.0084332311123501</v>
       </c>
-      <c r="E5" s="108">
+      <c r="F5" s="93">
         <f>'South Africa Workbook'!K15</f>
         <v>1.1112652962987772</v>
       </c>
-      <c r="F5" s="108">
+      <c r="G5" s="93">
         <f>'South Africa Workbook'!L15</f>
         <v>1.1103251234810905</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="H5" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="91">
+        <f>'South Africa Workbook'!A16</f>
+        <v>1995</v>
+      </c>
+      <c r="B6" s="4">
         <f>'South Africa Workbook'!G16</f>
         <v>4</v>
       </c>
-      <c r="B6" s="108">
+      <c r="C6" s="93">
         <f>'South Africa Workbook'!H16</f>
         <v>1.0546035949238399</v>
       </c>
-      <c r="C6" s="108">
+      <c r="D6" s="93">
         <f>'South Africa Workbook'!I16</f>
         <v>1.2756746171943205</v>
       </c>
-      <c r="D6" s="108">
+      <c r="E6" s="93">
         <f>'South Africa Workbook'!J16</f>
         <v>1.0226826038472261</v>
       </c>
-      <c r="E6" s="108">
+      <c r="F6" s="93">
         <f>'South Africa Workbook'!K16</f>
         <v>1.1293786188530368</v>
       </c>
-      <c r="F6" s="108">
+      <c r="G6" s="93">
         <f>'South Africa Workbook'!L16</f>
         <v>1.1270402858262345</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="H6" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="91">
+        <f>'South Africa Workbook'!A17</f>
+        <v>1996</v>
+      </c>
+      <c r="B7" s="4">
         <f>'South Africa Workbook'!G17</f>
         <v>5</v>
       </c>
-      <c r="B7" s="108">
+      <c r="C7" s="93">
         <f>'South Africa Workbook'!H17</f>
         <v>1.1000277805689698</v>
       </c>
-      <c r="C7" s="108">
+      <c r="D7" s="93">
         <f>'South Africa Workbook'!I17</f>
         <v>1.2422655511589069</v>
       </c>
-      <c r="D7" s="108">
+      <c r="E7" s="93">
         <f>'South Africa Workbook'!J17</f>
         <v>1.0435775020908837</v>
       </c>
-      <c r="E7" s="108">
+      <c r="F7" s="93">
         <f>'South Africa Workbook'!K17</f>
         <v>1.143734438689991</v>
       </c>
-      <c r="F7" s="108">
+      <c r="G7" s="93">
         <f>'South Africa Workbook'!L17</f>
         <v>1.141972546542646</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="H7" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="91">
+        <f>'South Africa Workbook'!A18</f>
+        <v>1997</v>
+      </c>
+      <c r="B8" s="4">
         <f>'South Africa Workbook'!G18</f>
         <v>6</v>
       </c>
-      <c r="B8" s="108">
+      <c r="C8" s="93">
         <f>'South Africa Workbook'!H18</f>
         <v>1.1291382703935975</v>
       </c>
-      <c r="C8" s="108">
+      <c r="D8" s="93">
         <f>'South Africa Workbook'!I18</f>
         <v>1.2908777646168526</v>
       </c>
-      <c r="D8" s="108">
+      <c r="E8" s="93">
         <f>'South Africa Workbook'!J18</f>
         <v>1.0683196264287707</v>
       </c>
-      <c r="E8" s="108">
+      <c r="F8" s="93">
         <f>'South Africa Workbook'!K18</f>
         <v>1.232894265618498</v>
       </c>
-      <c r="F8" s="108">
+      <c r="G8" s="93">
         <f>'South Africa Workbook'!L18</f>
         <v>1.2322721339116889</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="H8" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="91">
+        <f>'South Africa Workbook'!A19</f>
+        <v>1998</v>
+      </c>
+      <c r="B9" s="4">
         <f>'South Africa Workbook'!G19</f>
         <v>7</v>
       </c>
-      <c r="B9" s="108">
+      <c r="C9" s="93">
         <f>'South Africa Workbook'!H19</f>
         <v>1.134984011395944</v>
       </c>
-      <c r="C9" s="108">
+      <c r="D9" s="93">
         <f>'South Africa Workbook'!I19</f>
         <v>1.2885477134940848</v>
       </c>
-      <c r="D9" s="108">
+      <c r="E9" s="93">
         <f>'South Africa Workbook'!J19</f>
         <v>1.0959889880122664</v>
       </c>
-      <c r="E9" s="108">
+      <c r="F9" s="93">
         <f>'South Africa Workbook'!K19</f>
         <v>1.1783527458550864</v>
       </c>
-      <c r="F9" s="108">
+      <c r="G9" s="93">
         <f>'South Africa Workbook'!L19</f>
         <v>1.1762760684949551</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="H9" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="91">
+        <f>'South Africa Workbook'!A20</f>
+        <v>1999</v>
+      </c>
+      <c r="B10" s="4">
         <f>'South Africa Workbook'!G20</f>
         <v>8</v>
       </c>
-      <c r="B10" s="108">
+      <c r="C10" s="93">
         <f>'South Africa Workbook'!H20</f>
         <v>1.1617479297565358</v>
       </c>
-      <c r="C10" s="108">
+      <c r="D10" s="93">
         <f>'South Africa Workbook'!I20</f>
         <v>1.3403410595028735</v>
       </c>
-      <c r="D10" s="108">
+      <c r="E10" s="93">
         <f>'South Africa Workbook'!J20</f>
         <v>1.1139392249790911</v>
       </c>
-      <c r="E10" s="108">
+      <c r="F10" s="93">
         <f>'South Africa Workbook'!K20</f>
         <v>1.2261609812823508</v>
       </c>
-      <c r="F10" s="108">
+      <c r="G10" s="93">
         <f>'South Africa Workbook'!L20</f>
         <v>1.2249004948389883</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="H10" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="91">
+        <f>'South Africa Workbook'!A21</f>
+        <v>2000</v>
+      </c>
+      <c r="B11" s="4">
         <f>'South Africa Workbook'!G21</f>
         <v>9</v>
       </c>
-      <c r="B11" s="108">
+      <c r="C11" s="93">
         <f>'South Africa Workbook'!H21</f>
         <v>1.2100092798921878</v>
       </c>
-      <c r="C11" s="108">
+      <c r="D11" s="93">
         <f>'South Africa Workbook'!I21</f>
         <v>1.3387269687270591</v>
       </c>
-      <c r="D11" s="108">
+      <c r="E11" s="93">
         <f>'South Africa Workbook'!J21</f>
         <v>1.1342939782548089</v>
       </c>
-      <c r="E11" s="108">
+      <c r="F11" s="93">
         <f>'South Africa Workbook'!K21</f>
         <v>1.2583671691748994</v>
       </c>
-      <c r="F11" s="108">
+      <c r="G11" s="93">
         <f>'South Africa Workbook'!L21</f>
         <v>1.2575544772541754</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="H11" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="91">
+        <f>'South Africa Workbook'!A22</f>
+        <v>2001</v>
+      </c>
+      <c r="B12" s="4">
         <f>'South Africa Workbook'!G22</f>
         <v>10</v>
       </c>
-      <c r="B12" s="108">
+      <c r="C12" s="93">
         <f>'South Africa Workbook'!H22</f>
         <v>1.2431095322816121</v>
       </c>
-      <c r="C12" s="108">
+      <c r="D12" s="93">
         <f>'South Africa Workbook'!I22</f>
         <v>1.350606551053589</v>
       </c>
-      <c r="D12" s="108">
+      <c r="E12" s="93">
         <f>'South Africa Workbook'!J22</f>
         <v>1.1560252299972122</v>
       </c>
-      <c r="E12" s="108">
+      <c r="F12" s="93">
         <f>'South Africa Workbook'!K22</f>
         <v>1.2739461921848387</v>
       </c>
-      <c r="F12" s="108">
+      <c r="G12" s="93">
         <f>'South Africa Workbook'!L22</f>
         <v>1.2737234334513405</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="H12" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="91">
+        <f>'South Africa Workbook'!A23</f>
+        <v>2002</v>
+      </c>
+      <c r="B13" s="4">
         <f>'South Africa Workbook'!G23</f>
         <v>11</v>
       </c>
-      <c r="B13" s="108">
+      <c r="C13" s="93">
         <f>'South Africa Workbook'!H23</f>
         <v>1.2887051299480443</v>
       </c>
-      <c r="C13" s="108">
+      <c r="D13" s="93">
         <f>'South Africa Workbook'!I23</f>
         <v>1.3693591903438846</v>
       </c>
-      <c r="D13" s="108">
+      <c r="E13" s="93">
         <f>'South Africa Workbook'!J23</f>
         <v>1.1797672149428491</v>
       </c>
-      <c r="E13" s="108">
+      <c r="F13" s="93">
         <f>'South Africa Workbook'!K23</f>
         <v>1.2476653552351749</v>
       </c>
-      <c r="F13" s="108">
+      <c r="G13" s="93">
         <f>'South Africa Workbook'!L23</f>
         <v>1.245956359680539</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="H13" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="91">
+        <f>'South Africa Workbook'!A24</f>
+        <v>2003</v>
+      </c>
+      <c r="B14" s="4">
         <f>'South Africa Workbook'!G24</f>
         <v>12</v>
       </c>
-      <c r="B14" s="108">
+      <c r="C14" s="93">
         <f>'South Africa Workbook'!H24</f>
         <v>1.32671131260233</v>
       </c>
-      <c r="C14" s="108">
+      <c r="D14" s="93">
         <f>'South Africa Workbook'!I24</f>
         <v>1.4075982660929032</v>
       </c>
-      <c r="D14" s="108">
+      <c r="E14" s="93">
         <f>'South Africa Workbook'!J24</f>
         <v>1.2125627265124059</v>
       </c>
-      <c r="E14" s="108">
+      <c r="F14" s="93">
         <f>'South Africa Workbook'!K24</f>
         <v>1.3375480580364816</v>
       </c>
-      <c r="F14" s="108">
+      <c r="G14" s="93">
         <f>'South Africa Workbook'!L24</f>
         <v>1.3376968903217927</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="H14" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="91">
+        <f>'South Africa Workbook'!A25</f>
+        <v>2004</v>
+      </c>
+      <c r="B15" s="4">
         <f>'South Africa Workbook'!G25</f>
         <v>13</v>
       </c>
-      <c r="B15" s="108">
+      <c r="C15" s="93">
         <f>'South Africa Workbook'!H25</f>
         <v>1.3871370054910954</v>
       </c>
-      <c r="C15" s="108">
+      <c r="D15" s="93">
         <f>'South Africa Workbook'!I25</f>
         <v>1.501324121509906</v>
       </c>
-      <c r="D15" s="108">
+      <c r="E15" s="93">
         <f>'South Africa Workbook'!J25</f>
         <v>1.2579174797881238</v>
       </c>
-      <c r="E15" s="108">
+      <c r="F15" s="93">
         <f>'South Africa Workbook'!K25</f>
         <v>1.4192365109438139</v>
       </c>
-      <c r="F15" s="108">
+      <c r="G15" s="93">
         <f>'South Africa Workbook'!L25</f>
         <v>1.4192836291753026</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="H15" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="91">
+        <f>'South Africa Workbook'!A26</f>
+        <v>2005</v>
+      </c>
+      <c r="B16" s="4">
         <f>'South Africa Workbook'!G26</f>
         <v>14</v>
       </c>
-      <c r="B16" s="108">
+      <c r="C16" s="93">
         <f>'South Africa Workbook'!H26</f>
         <v>1.4603358493465655</v>
       </c>
-      <c r="C16" s="108">
+      <c r="D16" s="93">
         <f>'South Africa Workbook'!I26</f>
         <v>1.5184945407326125</v>
       </c>
-      <c r="D16" s="108">
+      <c r="E16" s="93">
         <f>'South Africa Workbook'!J26</f>
         <v>1.314402704209646</v>
       </c>
-      <c r="E16" s="108">
+      <c r="F16" s="93">
         <f>'South Africa Workbook'!K26</f>
         <v>1.4028578961197633</v>
       </c>
-      <c r="F16" s="108">
+      <c r="G16" s="93">
         <f>'South Africa Workbook'!L26</f>
         <v>1.4023245544512006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="H16" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="91">
+        <f>'South Africa Workbook'!A27</f>
+        <v>2006</v>
+      </c>
+      <c r="B17" s="4">
         <f>'South Africa Workbook'!G27</f>
         <v>15</v>
       </c>
-      <c r="B17" s="108">
+      <c r="C17" s="93">
         <f>'South Africa Workbook'!H27</f>
         <v>1.5421703126200623</v>
       </c>
-      <c r="C17" s="108">
+      <c r="D17" s="93">
         <f>'South Africa Workbook'!I27</f>
         <v>1.5981624695740144</v>
       </c>
-      <c r="D17" s="108">
+      <c r="E17" s="93">
         <f>'South Africa Workbook'!J27</f>
         <v>1.3844891274045164</v>
       </c>
-      <c r="E17" s="108">
+      <c r="F17" s="93">
         <f>'South Africa Workbook'!K27</f>
         <v>1.4427747891507012</v>
       </c>
-      <c r="F17" s="108">
+      <c r="G17" s="93">
         <f>'South Africa Workbook'!L27</f>
         <v>1.4413601138026086</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="H17" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="91">
+        <f>'South Africa Workbook'!A28</f>
+        <v>2007</v>
+      </c>
+      <c r="B18" s="4">
         <f>'South Africa Workbook'!G28</f>
         <v>16</v>
       </c>
-      <c r="B18" s="108">
+      <c r="C18" s="93">
         <f>'South Africa Workbook'!H28</f>
         <v>1.6267710112718181</v>
       </c>
-      <c r="C18" s="108">
+      <c r="D18" s="93">
         <f>'South Africa Workbook'!I28</f>
         <v>1.6965749186042138</v>
       </c>
-      <c r="D18" s="108">
+      <c r="E18" s="93">
         <f>'South Africa Workbook'!J28</f>
         <v>1.4726303317535545</v>
       </c>
-      <c r="E18" s="108">
+      <c r="F18" s="93">
         <f>'South Africa Workbook'!K28</f>
         <v>1.4988038368729533</v>
       </c>
-      <c r="F18" s="108">
+      <c r="G18" s="93">
         <f>'South Africa Workbook'!L28</f>
         <v>1.4962861911243543</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="H18" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="91">
+        <f>'South Africa Workbook'!A29</f>
+        <v>2008</v>
+      </c>
+      <c r="B19" s="4">
         <f>'South Africa Workbook'!G29</f>
         <v>17</v>
       </c>
-      <c r="B19" s="108">
+      <c r="C19" s="93">
         <f>'South Africa Workbook'!H29</f>
         <v>1.6866174497437685</v>
       </c>
-      <c r="C19" s="108">
+      <c r="D19" s="93">
         <f>'South Africa Workbook'!I29</f>
         <v>1.7562529512365346</v>
       </c>
-      <c r="D19" s="108">
+      <c r="E19" s="93">
         <f>'South Africa Workbook'!J29</f>
         <v>1.576303317535545</v>
       </c>
-      <c r="E19" s="108">
+      <c r="F19" s="93">
         <f>'South Africa Workbook'!K29</f>
         <v>1.5386695202969976</v>
       </c>
-      <c r="F19" s="108">
+      <c r="G19" s="93">
         <f>'South Africa Workbook'!L29</f>
         <v>1.5367053877890819</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="H19" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="91">
+        <f>'South Africa Workbook'!A30</f>
+        <v>2009</v>
+      </c>
+      <c r="B20" s="4">
         <f>'South Africa Workbook'!G30</f>
         <v>18</v>
       </c>
-      <c r="B20" s="108">
+      <c r="C20" s="93">
         <f>'South Africa Workbook'!H30</f>
         <v>1.6613193997032798</v>
       </c>
-      <c r="C20" s="108">
+      <c r="D20" s="93">
         <f>'South Africa Workbook'!I30</f>
         <v>1.7140554190780692</v>
       </c>
-      <c r="D20" s="108">
+      <c r="E20" s="93">
         <f>'South Africa Workbook'!J30</f>
         <v>1.6803038751045443</v>
       </c>
-      <c r="E20" s="108">
+      <c r="F20" s="93">
         <f>'South Africa Workbook'!K30</f>
         <v>1.4780052643456634</v>
       </c>
-      <c r="F20" s="108">
+      <c r="G20" s="93">
         <f>'South Africa Workbook'!L30</f>
         <v>1.4757996874031327</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="H20" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="91">
+        <f>'South Africa Workbook'!A31</f>
+        <v>2010</v>
+      </c>
+      <c r="B21" s="4">
         <f>'South Africa Workbook'!G31</f>
         <v>19</v>
       </c>
-      <c r="B21" s="108">
+      <c r="C21" s="93">
         <f>'South Africa Workbook'!H31</f>
         <v>1.7094979992079582</v>
       </c>
-      <c r="C21" s="108">
+      <c r="D21" s="93">
         <f>'South Africa Workbook'!I31</f>
         <v>1.655651326002332</v>
       </c>
-      <c r="D21" s="108">
+      <c r="E21" s="93">
         <f>'South Africa Workbook'!J31</f>
         <v>1.7923264566490102</v>
       </c>
-      <c r="E21" s="108">
+      <c r="F21" s="93">
         <f>'South Africa Workbook'!K31</f>
         <v>1.5004460984288268</v>
       </c>
-      <c r="F21" s="108">
+      <c r="G21" s="93">
         <f>'South Africa Workbook'!L31</f>
         <v>1.4993582685176849</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="H21" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="91">
+        <f>'South Africa Workbook'!A32</f>
+        <v>2011</v>
+      </c>
+      <c r="B22" s="4">
         <f>'South Africa Workbook'!G32</f>
         <v>20</v>
       </c>
-      <c r="B22" s="108">
+      <c r="C22" s="93">
         <f>'South Africa Workbook'!H32</f>
         <v>1.7624879568278136</v>
       </c>
-      <c r="C22" s="108" t="str">
+      <c r="D22" s="93" t="str">
         <f>'South Africa Workbook'!I32</f>
         <v>NA</v>
       </c>
-      <c r="D22" s="108">
+      <c r="E22" s="93">
         <f>'South Africa Workbook'!J32</f>
         <v>1.9066211318650683</v>
       </c>
-      <c r="E22" s="108">
+      <c r="F22" s="93">
         <f>'South Africa Workbook'!K32</f>
         <v>1.5383312391677293</v>
       </c>
-      <c r="F22" s="108">
+      <c r="G22" s="93">
         <f>'South Africa Workbook'!L32</f>
         <v>1.5402336285727898</v>
       </c>
+      <c r="H22" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="91" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6497,43 +6768,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="30.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="30.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="2" customWidth="1"/>
     <col min="21" max="21" width="13" style="2" customWidth="1"/>
     <col min="22" max="22" width="14" style="2" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="14.83203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="2" customWidth="1"/>
     <col min="26" max="26" width="20" style="2" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.5703125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="18.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.6640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.5" style="2" customWidth="1"/>
     <col min="30" max="30" width="18" style="2" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="21.5703125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="17.5703125" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="2"/>
+    <col min="31" max="32" width="21.5" style="2" customWidth="1"/>
+    <col min="33" max="33" width="17.5" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6604,7 +6874,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="20" t="s">
         <v>52</v>
       </c>
@@ -6615,7 +6885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
@@ -6638,7 +6908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="18">
+    <row r="17" spans="1:33" ht="16">
       <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
@@ -6685,7 +6955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="18">
+    <row r="19" spans="1:33" ht="16">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6976,7 @@
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" thickBot="1">
+    <row r="20" spans="1:33" ht="18" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>53</v>
       </c>
@@ -6727,7 +6997,7 @@
       </c>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:33" ht="18.75">
+    <row r="21" spans="1:33" ht="17">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40">
@@ -6744,7 +7014,7 @@
       </c>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:33" ht="18">
+    <row r="22" spans="1:33" ht="16">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="37">
@@ -6762,7 +7032,7 @@
       </c>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:33" ht="15" thickBot="1">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="32">
@@ -6781,7 +7051,7 @@
       </c>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="1:33" ht="18" thickBot="1">
+    <row r="24" spans="1:33" ht="17" thickBot="1">
       <c r="A24" s="42"/>
       <c r="C24" s="43">
         <f>1000/6</f>
@@ -6799,7 +7069,7 @@
       <c r="A26" s="42"/>
       <c r="C26" s="45"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" thickBot="1">
+    <row r="27" spans="1:33" ht="15" thickBot="1">
       <c r="E27" s="24" t="s">
         <v>57</v>
       </c>
@@ -6814,140 +7084,140 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="95" t="s">
+      <c r="F28" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="95" t="s">
+      <c r="J28" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="95" t="s">
+      <c r="K28" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="99" t="s">
+      <c r="L28" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="101" t="s">
+      <c r="M28" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="95" t="s">
+      <c r="N28" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="O28" s="95" t="s">
+      <c r="O28" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="P28" s="99" t="s">
+      <c r="P28" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="Q28" s="101" t="s">
+      <c r="Q28" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="U28" s="95" t="s">
+      <c r="U28" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="95" t="s">
+      <c r="W28" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="X28" s="97" t="s">
+      <c r="X28" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="Y28" s="99" t="s">
+      <c r="Y28" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="Z28" s="101" t="s">
+      <c r="Z28" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="AA28" s="95" t="s">
+      <c r="AA28" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="AB28" s="95" t="s">
+      <c r="AB28" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="AC28" s="95" t="s">
+      <c r="AC28" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="AD28" s="95" t="s">
+      <c r="AD28" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="AE28" s="95" t="s">
+      <c r="AE28" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="AF28" s="95" t="s">
+      <c r="AF28" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="AG28" s="97" t="s">
+      <c r="AG28" s="99" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="100"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="96"/>
-      <c r="AG29" s="98"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="100"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="46">
@@ -9329,7 +9599,7 @@
         <v>6317251.3994060401</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" thickBot="1">
+    <row r="50" spans="1:33" ht="15" thickBot="1">
       <c r="A50" s="54">
         <v>2011</v>
       </c>
@@ -9852,20 +10122,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
@@ -9876,17 +10141,27 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9898,19 +10173,19 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1">
@@ -9931,49 +10206,49 @@
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="K4" s="103"/>
+      <c r="K4" s="105"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="87" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="103"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="104" t="s">
+      <c r="H6" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="106" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="41"/>
@@ -9982,14 +10257,14 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11">
@@ -10623,5 +10898,10 @@
     <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Excel Workbooks/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/SouthAfricaDataWorkbook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="340" windowWidth="23720" windowHeight="17000" activeTab="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>Exergy [TJ]</t>
   </si>
@@ -919,7 +919,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,6 +1218,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1809,7 +1816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="504">
+  <cellStyleXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2320,8 +2327,10 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2605,8 +2614,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="504">
+  <cellStyles count="506">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="47"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="58"/>
@@ -2928,6 +2943,7 @@
     <cellStyle name="Explanatory Text 9" xfId="334"/>
     <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="49"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="335"/>
@@ -3004,6 +3020,7 @@
     <cellStyle name="Heading 4 9" xfId="384"/>
     <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="385"/>
     <cellStyle name="Input 11" xfId="386"/>
@@ -3611,61 +3628,61 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.021084482867443</c:v>
+                  <c:v>1.02108453722558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.059697147948241</c:v>
+                  <c:v>1.059697163248335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.170363684947513</c:v>
+                  <c:v>1.170363657648772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.27567461719432</c:v>
+                  <c:v>1.275674613356335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.242265551158907</c:v>
+                  <c:v>1.24226551927653</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.290877764616853</c:v>
+                  <c:v>1.290877714633713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.288547713494085</c:v>
+                  <c:v>1.28854775322984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.340341059502873</c:v>
+                  <c:v>1.340341050739077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.33872696872706</c:v>
+                  <c:v>1.338726964699374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.350606551053589</c:v>
+                  <c:v>1.350606540900188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.369359190343885</c:v>
+                  <c:v>1.369359175693963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.407598266092903</c:v>
+                  <c:v>1.407598275154054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.501324121509906</c:v>
+                  <c:v>1.501324084335237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.518494540732612</c:v>
+                  <c:v>1.518494538735942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.598162469574014</c:v>
+                  <c:v>1.598162453119626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.696574918604214</c:v>
+                  <c:v>1.69657487424262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.756252951236534</c:v>
+                  <c:v>1.756252991154372</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.71405541907807</c:v>
+                  <c:v>1.717188954823181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.655651326002332</c:v>
+                  <c:v>1.655651333152575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,11 +4027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145495656"/>
-        <c:axId val="-2145487784"/>
+        <c:axId val="2136452584"/>
+        <c:axId val="-2115265688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145495656"/>
+        <c:axId val="2136452584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,12 +4059,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145487784"/>
+        <c:crossAx val="-2115265688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145487784"/>
+        <c:axId val="-2115265688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +4092,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145495656"/>
+        <c:crossAx val="2136452584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4759,7 +4776,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4966,8 +4983,8 @@
       <c r="B12" s="1">
         <v>169183</v>
       </c>
-      <c r="C12" s="7">
-        <v>8243054.9752000002</v>
+      <c r="C12" s="109">
+        <v>8243055</v>
       </c>
       <c r="D12" s="1">
         <v>286960</v>
@@ -5010,8 +5027,8 @@
       <c r="B13" s="1">
         <v>165567</v>
       </c>
-      <c r="C13" s="7">
-        <v>8416855.5265999995</v>
+      <c r="C13" s="109">
+        <v>8416856</v>
       </c>
       <c r="D13" s="1">
         <v>287305</v>
@@ -5031,8 +5048,8 @@
         <v>0.97862669417140025</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ref="I13:I31" si="3">C13/$C$12</f>
-        <v>1.0210844828674435</v>
+        <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
+        <v>1.0210845372255797</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
@@ -5054,8 +5071,8 @@
       <c r="B14" s="1">
         <v>167610</v>
       </c>
-      <c r="C14" s="7">
-        <v>8735141.8476</v>
+      <c r="C14" s="109">
+        <v>8735142</v>
       </c>
       <c r="D14" s="1">
         <v>287512</v>
@@ -5076,7 +5093,7 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>1.0596971479482411</v>
+        <v>1.0596971632483345</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="4"/>
@@ -5098,8 +5115,8 @@
       <c r="B15" s="1">
         <v>173030</v>
       </c>
-      <c r="C15" s="7">
-        <v>9647372.1959999986</v>
+      <c r="C15" s="109">
+        <v>9647372</v>
       </c>
       <c r="D15" s="1">
         <v>289380</v>
@@ -5120,7 +5137,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>1.1703636849475125</v>
+        <v>1.1703636576487721</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="4"/>
@@ -5142,7 +5159,7 @@
       <c r="B16" s="1">
         <v>178421</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="109">
         <v>10515456</v>
       </c>
       <c r="D16" s="1">
@@ -5164,7 +5181,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>1.2756746171943205</v>
+        <v>1.2756746133563346</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="4"/>
@@ -5186,8 +5203,8 @@
       <c r="B17" s="1">
         <v>186106</v>
       </c>
-      <c r="C17" s="7">
-        <v>10240063.231999999</v>
+      <c r="C17" s="109">
+        <v>10240063</v>
       </c>
       <c r="D17" s="1">
         <v>299465</v>
@@ -5208,7 +5225,7 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>1.2422655511589069</v>
+        <v>1.2422655192765304</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="4"/>
@@ -5230,8 +5247,8 @@
       <c r="B18" s="1">
         <v>191031</v>
       </c>
-      <c r="C18" s="7">
-        <v>10640776.380000001</v>
+      <c r="C18" s="109">
+        <v>10640776</v>
       </c>
       <c r="D18" s="1">
         <v>306565</v>
@@ -5252,7 +5269,7 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>1.2908777646168526</v>
+        <v>1.2908777146337129</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="4"/>
@@ -5274,8 +5291,8 @@
       <c r="B19" s="1">
         <v>192020</v>
       </c>
-      <c r="C19" s="7">
-        <v>10621569.6405</v>
+      <c r="C19" s="109">
+        <v>10621570</v>
       </c>
       <c r="D19" s="1">
         <v>314505</v>
@@ -5296,7 +5313,7 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>1.2885477134940848</v>
+        <v>1.2885477532298402</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="4"/>
@@ -5318,8 +5335,8 @@
       <c r="B20" s="1">
         <v>196548</v>
       </c>
-      <c r="C20" s="7">
-        <v>11048505.039000001</v>
+      <c r="C20" s="109">
+        <v>11048505</v>
       </c>
       <c r="D20" s="1">
         <v>319656</v>
@@ -5340,7 +5357,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>1.3403410595028735</v>
+        <v>1.3403410507390767</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" si="4"/>
@@ -5362,7 +5379,7 @@
       <c r="B21" s="1">
         <v>204713</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="109">
         <v>11035200</v>
       </c>
       <c r="D21" s="1">
@@ -5384,7 +5401,7 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>1.3387269687270591</v>
+        <v>1.3387269646993742</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="4"/>
@@ -5406,8 +5423,8 @@
       <c r="B22" s="1">
         <v>210313</v>
       </c>
-      <c r="C22" s="7">
-        <v>11133124.0502</v>
+      <c r="C22" s="109">
+        <v>11133124</v>
       </c>
       <c r="D22" s="1">
         <v>331733</v>
@@ -5428,7 +5445,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>1.350606551053589</v>
+        <v>1.3506065409001882</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="4"/>
@@ -5450,8 +5467,8 @@
       <c r="B23" s="1">
         <v>218027</v>
       </c>
-      <c r="C23" s="7">
-        <v>11287703.086800002</v>
+      <c r="C23" s="109">
+        <v>11287703</v>
       </c>
       <c r="D23" s="1">
         <v>338546</v>
@@ -5472,7 +5489,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>1.3693591903438846</v>
+        <v>1.3693591756939629</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="4"/>
@@ -5494,8 +5511,8 @@
       <c r="B24" s="1">
         <v>224457</v>
       </c>
-      <c r="C24" s="7">
-        <v>11602909.8904</v>
+      <c r="C24" s="109">
+        <v>11602910</v>
       </c>
       <c r="D24" s="1">
         <v>347957</v>
@@ -5516,7 +5533,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>1.4075982660929032</v>
+        <v>1.4075982751540539</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="4"/>
@@ -5538,8 +5555,8 @@
       <c r="B25" s="1">
         <v>234680</v>
       </c>
-      <c r="C25" s="7">
-        <v>12375497.269200001</v>
+      <c r="C25" s="109">
+        <v>12375497</v>
       </c>
       <c r="D25" s="1">
         <v>360972</v>
@@ -5560,7 +5577,7 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>1.501324121509906</v>
+        <v>1.5013240843352373</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="4"/>
@@ -5582,8 +5599,8 @@
       <c r="B26" s="1">
         <v>247064</v>
       </c>
-      <c r="C26" s="7">
-        <v>12517033.978800001</v>
+      <c r="C26" s="109">
+        <v>12517034</v>
       </c>
       <c r="D26" s="1">
         <v>377181</v>
@@ -5604,7 +5621,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>1.5184945407326125</v>
+        <v>1.5184945387359419</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="4"/>
@@ -5626,8 +5643,8 @@
       <c r="B27" s="1">
         <v>260909</v>
       </c>
-      <c r="C27" s="7">
-        <v>13173741.095999999</v>
+      <c r="C27" s="109">
+        <v>13173741</v>
       </c>
       <c r="D27" s="1">
         <v>397293</v>
@@ -5648,7 +5665,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>1.5981624695740144</v>
+        <v>1.5981624531196261</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="4"/>
@@ -5670,8 +5687,8 @@
       <c r="B28" s="1">
         <v>275222</v>
       </c>
-      <c r="C28" s="7">
-        <v>13984960.3236</v>
+      <c r="C28" s="109">
+        <v>13984960</v>
       </c>
       <c r="D28" s="1">
         <v>422586</v>
@@ -5692,7 +5709,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>1.6965749186042138</v>
+        <v>1.6965748742426201</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="4"/>
@@ -5714,8 +5731,8 @@
       <c r="B29" s="1">
         <v>285347</v>
       </c>
-      <c r="C29" s="7">
-        <v>14476889.6274</v>
+      <c r="C29" s="109">
+        <v>14476890</v>
       </c>
       <c r="D29" s="1">
         <v>452336</v>
@@ -5736,7 +5753,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>1.7562529512365346</v>
+        <v>1.7562529911543718</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="4"/>
@@ -5758,8 +5775,8 @@
       <c r="B30" s="1">
         <v>281067</v>
       </c>
-      <c r="C30" s="7">
-        <v>14129053.050000001</v>
+      <c r="C30" s="109">
+        <v>14154883</v>
       </c>
       <c r="D30" s="1">
         <v>482180</v>
@@ -5780,7 +5797,7 @@
       </c>
       <c r="I30" s="5">
         <f>C30/$C$12</f>
-        <v>1.7140554190780692</v>
+        <v>1.7171889548231813</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="4"/>
@@ -5802,8 +5819,8 @@
       <c r="B31" s="1">
         <v>289218</v>
       </c>
-      <c r="C31" s="7">
-        <v>13647624.9</v>
+      <c r="C31" s="109">
+        <v>13647625</v>
       </c>
       <c r="D31" s="1">
         <v>514326</v>
@@ -5824,7 +5841,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>1.655651326002332</v>
+        <v>1.6556513331525751</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="4"/>
@@ -5846,8 +5863,8 @@
       <c r="B32" s="1">
         <v>298183</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>108</v>
+      <c r="C32" s="110">
+        <v>13810185</v>
       </c>
       <c r="D32" s="1">
         <v>547124</v>
@@ -5866,8 +5883,9 @@
         <f t="shared" si="2"/>
         <v>1.7624879568278136</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>108</v>
+      <c r="I32" s="86">
+        <f t="shared" si="3"/>
+        <v>1.6753721769416801</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="4"/>
@@ -5954,7 +5972,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6049,7 +6067,7 @@
       </c>
       <c r="D3" s="93">
         <f>'South Africa Workbook'!I13</f>
-        <v>1.0210844828674435</v>
+        <v>1.0210845372255797</v>
       </c>
       <c r="E3" s="93">
         <f>'South Africa Workbook'!J13</f>
@@ -6085,7 +6103,7 @@
       </c>
       <c r="D4" s="93">
         <f>'South Africa Workbook'!I14</f>
-        <v>1.0596971479482411</v>
+        <v>1.0596971632483345</v>
       </c>
       <c r="E4" s="93">
         <f>'South Africa Workbook'!J14</f>
@@ -6121,7 +6139,7 @@
       </c>
       <c r="D5" s="93">
         <f>'South Africa Workbook'!I15</f>
-        <v>1.1703636849475125</v>
+        <v>1.1703636576487721</v>
       </c>
       <c r="E5" s="93">
         <f>'South Africa Workbook'!J15</f>
@@ -6157,7 +6175,7 @@
       </c>
       <c r="D6" s="93">
         <f>'South Africa Workbook'!I16</f>
-        <v>1.2756746171943205</v>
+        <v>1.2756746133563346</v>
       </c>
       <c r="E6" s="93">
         <f>'South Africa Workbook'!J16</f>
@@ -6193,7 +6211,7 @@
       </c>
       <c r="D7" s="93">
         <f>'South Africa Workbook'!I17</f>
-        <v>1.2422655511589069</v>
+        <v>1.2422655192765304</v>
       </c>
       <c r="E7" s="93">
         <f>'South Africa Workbook'!J17</f>
@@ -6229,7 +6247,7 @@
       </c>
       <c r="D8" s="93">
         <f>'South Africa Workbook'!I18</f>
-        <v>1.2908777646168526</v>
+        <v>1.2908777146337129</v>
       </c>
       <c r="E8" s="93">
         <f>'South Africa Workbook'!J18</f>
@@ -6265,7 +6283,7 @@
       </c>
       <c r="D9" s="93">
         <f>'South Africa Workbook'!I19</f>
-        <v>1.2885477134940848</v>
+        <v>1.2885477532298402</v>
       </c>
       <c r="E9" s="93">
         <f>'South Africa Workbook'!J19</f>
@@ -6301,7 +6319,7 @@
       </c>
       <c r="D10" s="93">
         <f>'South Africa Workbook'!I20</f>
-        <v>1.3403410595028735</v>
+        <v>1.3403410507390767</v>
       </c>
       <c r="E10" s="93">
         <f>'South Africa Workbook'!J20</f>
@@ -6337,7 +6355,7 @@
       </c>
       <c r="D11" s="93">
         <f>'South Africa Workbook'!I21</f>
-        <v>1.3387269687270591</v>
+        <v>1.3387269646993742</v>
       </c>
       <c r="E11" s="93">
         <f>'South Africa Workbook'!J21</f>
@@ -6373,7 +6391,7 @@
       </c>
       <c r="D12" s="93">
         <f>'South Africa Workbook'!I22</f>
-        <v>1.350606551053589</v>
+        <v>1.3506065409001882</v>
       </c>
       <c r="E12" s="93">
         <f>'South Africa Workbook'!J22</f>
@@ -6409,7 +6427,7 @@
       </c>
       <c r="D13" s="93">
         <f>'South Africa Workbook'!I23</f>
-        <v>1.3693591903438846</v>
+        <v>1.3693591756939629</v>
       </c>
       <c r="E13" s="93">
         <f>'South Africa Workbook'!J23</f>
@@ -6445,7 +6463,7 @@
       </c>
       <c r="D14" s="93">
         <f>'South Africa Workbook'!I24</f>
-        <v>1.4075982660929032</v>
+        <v>1.4075982751540539</v>
       </c>
       <c r="E14" s="93">
         <f>'South Africa Workbook'!J24</f>
@@ -6481,7 +6499,7 @@
       </c>
       <c r="D15" s="93">
         <f>'South Africa Workbook'!I25</f>
-        <v>1.501324121509906</v>
+        <v>1.5013240843352373</v>
       </c>
       <c r="E15" s="93">
         <f>'South Africa Workbook'!J25</f>
@@ -6517,7 +6535,7 @@
       </c>
       <c r="D16" s="93">
         <f>'South Africa Workbook'!I26</f>
-        <v>1.5184945407326125</v>
+        <v>1.5184945387359419</v>
       </c>
       <c r="E16" s="93">
         <f>'South Africa Workbook'!J26</f>
@@ -6553,7 +6571,7 @@
       </c>
       <c r="D17" s="93">
         <f>'South Africa Workbook'!I27</f>
-        <v>1.5981624695740144</v>
+        <v>1.5981624531196261</v>
       </c>
       <c r="E17" s="93">
         <f>'South Africa Workbook'!J27</f>
@@ -6589,7 +6607,7 @@
       </c>
       <c r="D18" s="93">
         <f>'South Africa Workbook'!I28</f>
-        <v>1.6965749186042138</v>
+        <v>1.6965748742426201</v>
       </c>
       <c r="E18" s="93">
         <f>'South Africa Workbook'!J28</f>
@@ -6625,7 +6643,7 @@
       </c>
       <c r="D19" s="93">
         <f>'South Africa Workbook'!I29</f>
-        <v>1.7562529512365346</v>
+        <v>1.7562529911543718</v>
       </c>
       <c r="E19" s="93">
         <f>'South Africa Workbook'!J29</f>
@@ -6661,7 +6679,7 @@
       </c>
       <c r="D20" s="93">
         <f>'South Africa Workbook'!I30</f>
-        <v>1.7140554190780692</v>
+        <v>1.7171889548231813</v>
       </c>
       <c r="E20" s="93">
         <f>'South Africa Workbook'!J30</f>
@@ -6697,7 +6715,7 @@
       </c>
       <c r="D21" s="93">
         <f>'South Africa Workbook'!I31</f>
-        <v>1.655651326002332</v>
+        <v>1.6556513331525751</v>
       </c>
       <c r="E21" s="93">
         <f>'South Africa Workbook'!J31</f>
@@ -6731,9 +6749,9 @@
         <f>'South Africa Workbook'!H32</f>
         <v>1.7624879568278136</v>
       </c>
-      <c r="D22" s="93" t="str">
+      <c r="D22" s="93">
         <f>'South Africa Workbook'!I32</f>
-        <v>NA</v>
+        <v>1.6753721769416801</v>
       </c>
       <c r="E22" s="93">
         <f>'South Africa Workbook'!J32</f>
@@ -10122,15 +10140,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
@@ -10141,20 +10164,15 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
